--- a/rq3-final.xlsx
+++ b/rq3-final.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20384"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangchong\Desktop\Code Graph\RQ3结果\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CBF32A0-09DC-4A36-9AD2-6DA6862CE675}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="17" windowWidth="16097" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="17950"/>
   </bookViews>
   <sheets>
     <sheet name="tasks" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -25,76 +19,49 @@
     <t>Participant</t>
   </si>
   <si>
+    <t>Task2</t>
+  </si>
+  <si>
+    <t>Task10</t>
+  </si>
+  <si>
     <t>Task1</t>
   </si>
   <si>
-    <t>Task2</t>
+    <t>Task7</t>
+  </si>
+  <si>
+    <t>Task9</t>
+  </si>
+  <si>
+    <t>Task8</t>
+  </si>
+  <si>
+    <t>Task6</t>
+  </si>
+  <si>
+    <t>Task4</t>
+  </si>
+  <si>
+    <t>Task5</t>
   </si>
   <si>
     <t>Task3</t>
   </si>
   <si>
-    <t>Task4</t>
-  </si>
-  <si>
-    <t>Task5</t>
-  </si>
-  <si>
-    <t>Task6</t>
-  </si>
-  <si>
-    <t>Task7</t>
-  </si>
-  <si>
-    <t>Task8</t>
-  </si>
-  <si>
-    <t>Task9</t>
-  </si>
-  <si>
-    <t>Task10</t>
+    <t>Ranking</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Time (s)</t>
+  </si>
+  <si>
+    <t>Correct</t>
   </si>
   <si>
     <t>A1</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>A6</t>
-  </si>
-  <si>
-    <t>A7</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>B4</t>
-  </si>
-  <si>
-    <t>B5</t>
-  </si>
-  <si>
-    <t>B6</t>
-  </si>
-  <si>
-    <t>B7</t>
   </si>
   <si>
     <t>public class Foo {
@@ -105,56 +72,6 @@
             drawCircle(canvas, growfactorIndicator &gt; maxRadius ? maxRadius: growfactorIndicator, x, y - (textHeight / 6));
         } else {
             drawCircle(canvas, circleScale * bigCircleIndicatorRadius, x, y - (textHeight / 6));
-        }
-    }
-}</t>
-  </si>
-  <si>
-    <t>public class Foo {
-@Override
-    protected void onDraw(Canvas canvas) {
-        super.onDraw(canvas);
-        circle = circlePaths.get(0);
-        circle.center[0] = maxLength * mInterpolatedTime;
-        RectF ball1 = new RectF();
-        ball1.left = circle.center[0] - circle.radius;
-        ball1.top = circle.center[1] - circle.radius;
-        ball1.right = ball1.left + circle.radius * 2;
-        ball1.bottom = ball1.top + circle.radius * 2;
-        canvas.drawCircle(ball1.centerX(), ball1.centerY(), circle.radius, paint);
-        for (int i = 1, l = circlePaths.size(); i &lt; l; i++) {
-            metaball(canvas, i, 0, 0.6f, handle_len_rate, radius * 4f);
-        }
-    }
-}</t>
-  </si>
-  <si>
-    <t>public class Foo {
-public static void drawCircle(Graphics g, Point center, int diameter){
-  drawCircle(g, (int) center.getX(), (int) center.getY(), diameter);
- }
-}</t>
-  </si>
-  <si>
-    <t>public class Foo {
-private void drawCenterCircle(Canvas canvas) {
-        final PieChartData data = dataProvider.getPieChartData();
-        final float circleRadius = originCircleOval.width() / 2f;
-        final float centerRadius = circleRadius * data.getCenterCircleScale();
-        final float centerX = originCircleOval.centerX();
-        final float centerY = originCircleOval.centerY();
-        canvas.drawCircle(centerX, centerY, centerRadius, centerCirclePaint);
-        // Draw center text1 and text2 if not empty.
-        if (!TextUtils.isEmpty(data.getCenterText1())) {
-            final int text1Height = Math.abs(centerCircleText1FontMetrics.ascent);
-            if (!TextUtils.isEmpty(data.getCenterText2())) {
-                // Draw text 2 only if text 1 is not empty.
-                final int text2Height = Math.abs(centerCircleText2FontMetrics.ascent);
-                canvas.drawText(data.getCenterText1(), centerX, centerY - text1Height * 0.2f, centerCircleText1Paint);
-                canvas.drawText(data.getCenterText2(), centerX, centerY + text2Height, centerCircleText2Paint);
-            } else {
-                canvas.drawText(data.getCenterText1(), centerX, centerY + text1Height / 4, centerCircleText1Paint);
-            }
         }
     }
 }</t>
@@ -216,209 +133,6 @@
   </si>
   <si>
     <t>public class Foo {
-@Override
-    public void verify(Context context, Path file) throws VerifyException, IOException {
-        String expectedSha512sum;
-        try {
-            if (context.sha512sum == null) {
-                log.debug("No sha512 checksum specified, skipping verification");
-                return;
-            } else if (context.sha512sum.equalsIgnoreCase(".sha512")) {
-                String url = context.url.substring(0, context.url.lastIndexOf(".")) + ".sha512";
-                expectedSha512sum = getUrlContents(url).split(" ")[0].trim();
-            } else if (context.sha512sum.startsWith("http")) {
-                expectedSha512sum = getUrlContents(context.sha512sum).split(" ")[0].trim();
-            } else {
-                expectedSha512sum = context.sha512sum;
-            }
-        } catch (IOException e) {
-            throw new VerifyException(e, "SHA512 checksum verification failed, could not download SHA512 file ({})", context.sha512sum);
-        }
-        log.debug("Verifying sha512 checksum of file {}", file.getFileName());
-        String actualSha512sum = DigestUtils.sha512Hex(Files.newInputStream(file));
-        if (actualSha512sum.equalsIgnoreCase(expectedSha512sum)) {
-            log.debug("Checksum OK");
-            return;
-        }
-        throw new VerifyException("SHA512 checksum of downloaded file " + file.getFileName()
-                + " does not match that from plugin descriptor. Got " + actualSha512sum
-                + " but expected " + expectedSha512sum);
-    }
-}</t>
-  </si>
-  <si>
-    <t>public class Foo {
-public static List&lt;Hash&gt; calculateHashes(File file) throws IOException {
-        if (file == null || !file.exists() || !file.canRead()) {
-            return null;
-        }
-        final List&lt;Hash&gt; hashes = new ArrayList&lt;&gt;();
-        try (InputStream fis = Files.newInputStream(file.toPath())) {
-            hashes.add(new Hash(Hash.Algorithm.MD5, DigestUtils.md5Hex(fis)));
-        }
-        try (InputStream fis = Files.newInputStream(file.toPath())) {
-            hashes.add(new Hash(Hash.Algorithm.SHA1, DigestUtils.sha1Hex(fis)));
-        }
-        try (InputStream fis = Files.newInputStream(file.toPath())) {
-            hashes.add(new Hash(Hash.Algorithm.SHA_256, DigestUtils.sha256Hex(fis)));
-        }
-        try (InputStream fis = Files.newInputStream(file.toPath())) {
-            hashes.add(new Hash(Hash.Algorithm.SHA_384, DigestUtils.sha384Hex(fis)));
-        }
-        try (InputStream fis = Files.newInputStream(file.toPath())) {
-            hashes.add(new Hash(Hash.Algorithm.SHA_512, DigestUtils.sha512Hex(fis)));
-        }
-        return hashes;
-    }
-}</t>
-  </si>
-  <si>
-    <t>public class Foo {
-public void verifyIntegrity()
-    {
-        LinkedHashSet&lt;String&gt; noLongerActive = new LinkedHashSet&lt;String&gt;(myWorkUnits);
-        noLongerActive.removeAll(allWorkUnits.keySet());
-        for (String workUnit : noLongerActive) {
-            shutdownWork(workUnit, true);
-        }
-        // Check the status of pegged work units to ensure that this node is not serving
-        // a work unit that is pegged to another node in the cluster.
-        for (String workUnit : myWorkUnits) {
-            String claimPath = workUnitClaimPath(workUnit);
-            if (!balancingPolicy.isFairGame(workUnit) &amp;&amp; !balancingPolicy.isPeggedToMe(workUnit)) {
-                LOG.info("Discovered I'm serving a work unit that's now " +
-                        "pegged to someone else. Shutting down {}", workUnit);
-                        shutdownWork(workUnit, true);
-            } else if (workUnitMap.containsKey(workUnit) &amp;&amp; !workUnitMap.get(workUnit).equals(myNodeID)
-                    &amp;&amp; !claimedForHandoff.contains(workUnit) &amp;&amp; !znodeIsMe(claimPath)) {
-                LOG.info("Discovered I'm serving a work unit that's now " +
-                        "claimed by {} according to ZooKeeper. Shutting down {}",
-                        workUnitMap.get(workUnit), workUnit);
-                shutdownWork(workUnit, true);
-            }
-        }
-    }
-}</t>
-  </si>
-  <si>
-    <t>public class Foo {
-public static void downloadToFile(S3Object s3Object,
-        final File dstfile, boolean performIntegrityCheck,
-        final boolean appendData,
-        final long expectedFileLength)
-    {
-        createParentDirectoryIfNecessary(dstfile);
-        if (!FileLocks.lock(dstfile)) {
-            throw new FileLockException("Fail to lock " + dstfile
-                    + " for appendData=" + appendData);
-        }
-        OutputStream outputStream = null;
-        try {
-            final long actualLen = dstfile.length();
-            if (appendData &amp;&amp; actualLen != expectedFileLength) {
-                // Fail fast to prevent data corruption
-                throw new IllegalStateException(
-                        "Expected file length to append is "
-                            + expectedFileLength + " but actual length is "
-                            + actualLen + " for file " + dstfile);
-            }
-            outputStream = new BufferedOutputStream(new FileOutputStream(
-                    dstfile, appendData));
-            byte[] buffer = new byte[1024*10];
-            int bytesRead;
-            while ((bytesRead = s3Object.getObjectContent().read(buffer)) &gt; -1) {
-                outputStream.write(buffer, 0, bytesRead);
-            }
-        } catch (IOException e) {
-            s3Object.getObjectContent().abort();
-            throw new SdkClientException(
-                    "Unable to store object contents to disk: " + e.getMessage(), e);
-        } finally {
-            closeQuietly(outputStream, LOG);
-            FileLocks.unlock(dstfile);
-            closeQuietly(s3Object.getObjectContent(), LOG);
-        }
-        if (performIntegrityCheck) {
-            byte[] clientSideHash = null;
-            byte[] serverSideHash = null;
-            try {
-                final ObjectMetadata metadata = s3Object.getObjectMetadata();
-                if (!skipMd5CheckStrategy.skipClientSideValidationPerGetResponse(metadata)) {
-                    clientSideHash = Md5Utils.computeMD5Hash(new FileInputStream(dstfile));
-                    serverSideHash = BinaryUtils.fromHex(metadata.getETag());
-                }
-            } catch (Exception e) {
-                LOG.warn("Unable to calculate MD5 hash to validate download: " + e.getMessage(), e);
-            }
-            if (clientSideHash != null &amp;&amp; serverSideHash != null &amp;&amp; !Arrays.equals(clientSideHash, serverSideHash)) {
-                throw new SdkClientException("Unable to verify integrity of data download.  " +
-                        "Client calculated content hash didn't match hash calculated by Amazon S3.  " +
-                        "The data stored in '" + dstfile.getAbsolutePath() + "' may be corrupt.");
-            }
-        }
-    }
-}</t>
-  </si>
-  <si>
-    <t>public class Foo {
-public HashCalculationResult calculateSuperHash(byte[] bytes) throws IOException {
-        HashCalculationResult result = null;
-        // Remove white spaces
-        byte[] bytesWithoutSpaces = stripWhiteSpaces(bytes);
-        long fileSize = bytesWithoutSpaces.length;
-        if (fileSize &lt; FILE_MIN_SIZE_THRESHOLD) {
-            // Ignore files smaller 1/2 kb
-            logger.debug("Ignoring file with size " + FileUtils.byteCountToDisplaySize(fileSize) + ": minimum file size is 512B");
-        } else if (fileSize &lt;= FILE_PARTIAL_HASH_MIN_SIZE) {
-            // Don't calculate msb and lsb hashes for files smaller than 2kb
-            String fullFileHash = calculateByteArrayHash(bytesWithoutSpaces, HashAlgorithm.SHA1);
-            result = new HashCalculationResult(fullFileHash);
-        } else if (fileSize &lt;= FILE_SMALL_SIZE) {
-            // Handle 2kb-&gt;3kb files
-            result = hashBuckets(bytesWithoutSpaces, FILE_SMALL_BUCKET_SIZE);
-        } else {
-            int baseLowNumber = 1;
-            int digits = (int) Math.log10(fileSize);
-            int i = 0;
-            while (i &lt; digits) {
-                baseLowNumber = baseLowNumber * 10;
-                i++;
-            }
-            double highNumber = Math.ceil((fileSize + 1) / (float) baseLowNumber) * baseLowNumber;
-            double lowNumber = highNumber - baseLowNumber;
-            double bucketSize = (highNumber + lowNumber) / 4;
-            result = hashBuckets(bytesWithoutSpaces, bucketSize);
-        }
-        return result;
-    }
-}</t>
-  </si>
-  <si>
-    <t>public class Foo {
-public HashCalculationResult calculateSuperHash(File file) throws IOException {
-        // Ignore files smaller than 0.5kb
-        long fileSize = file.length();
-        if (fileSize &lt;= FILE_MIN_SIZE_THRESHOLD) {
-            logger.debug("Ignored file " + file.getName() + " (" + FileUtils.byteCountToDisplaySize(fileSize) + "): minimum file size is 512B");
-            return null;
-        }
-        if (fileSize &gt;= FILE_MAX_SIZE_THRESHOLD){
-            logger.debug("Ignore file {}, ({}): maximum file size is 2GB", file.getName(), FileUtils.byteCountToDisplaySize(fileSize));
-            return null;
-        }
-        HashCalculationResult result = null;
-        try {
-            result = calculateSuperHash(FileUtils.readFileToByteArray(file));
-        } catch (OutOfMemoryError e) {
-            logger.debug(MessageFormat.format("Failed calculating SHA-1 for file {0}: size too big {1}",
-                    file.getAbsolutePath(), FileUtils.byteCountToDisplaySize(fileSize)));
-        }
-        return result;
-    }
-}</t>
-  </si>
-  <si>
-    <t>public class Foo {
 public static String getAbsoluteURIFromRelative(String localPath)
   {
     if (localPath == null || localPath.length() == 0)
@@ -454,6 +168,256 @@
   </si>
   <si>
     <t>public class Foo {
+public static String toBase64(Image image, String imageType) {
+		final ByteArrayOutputStream out = new ByteArrayOutputStream();
+		write(image, imageType, out);
+		return Base64.encode(out.toByteArray());
+	}
+}</t>
+  </si>
+  <si>
+    <t>public class Foo {
+private static boolean isSafeUrl(String url, Set&lt;CustomSafeUrlScheme&gt; extraAllowedSchemes) {
+    String lowerCased = url.toLowerCase();
+    // If some Unicode character lower cases to something that ends up matching these ASCII ones,
+    // it's harmless.
+    for (String scheme : DEFAULT_SAFE_SCHEMES) {
+      if (lowerCased.startsWith(scheme + ":")) {
+        return true;
+      }
+    }
+    for (CustomSafeUrlScheme scheme : extraAllowedSchemes) {
+      /**
+       * For "-" in a custom URL scheme, it's not possible to write a proto enum with "-" in the
+       * field name. In proto, it has to be "_". But we can safely convert all "_" in the proto name
+       * to "-", since according to the URL Living Standard, a URL-scheme string must be one ASCII
+       * alpha, followed by zero or more of ASCII alphanumeric, "+", "-", and ".".
+       *
+       * @see https://url.spec.whatwg.org/#url-syntax
+       */
+      if (lowerCased.startsWith(scheme.name().toLowerCase().replace('_', '-') + ":")) {
+        return true;
+      }
+    }
+    for (int i = 0; i &lt; url.length(); i++) {
+      switch (url.charAt(i)) {
+        case '/':
+        case '?':
+        case '#':
+          // After this the string can end or contain anything else, it won't be interpreted
+          // as the scheme.
+          return true;
+        case ':':
+          // This character is not allowed before seeing one of the above characters.
+          return false;
+        default:
+          // Other characters ok.
+          continue;
+      }
+    }
+    return true;
+  }
+}</t>
+  </si>
+  <si>
+    <t>public class Foo {
+HttpResponse post(URI uri, String json) {
+		HttpPost post = new HttpPost(uri);
+		setEntity(post, json);
+		return executeRequest(post);
+	}
+}</t>
+  </si>
+  <si>
+    <t>public class Foo {
+public String getXPathBase() {
+        String xPathBase = "";
+        if (this.getElement() != null) {
+            String locator = getLocator();
+            if (!locator.startsWith("link=") &amp;&amp; !locator.startsWith("xpath=") &amp;&amp; !locator.startsWith("/")) {
+                if (locator.startsWith("id=") || locator.startsWith("name=")) {
+                    String tmp = locator.substring(locator.indexOf('=', 1) + 1);
+                    if (locator.startsWith("id=")) {
+                        xPathBase = "//table[@id='" + tmp + "']/tbody/";
+                    } else {
+                        xPathBase = "//*[@name='" + tmp + "']/tbody/";
+                    }
+                } else {
+                    xPathBase = "//*[@id='" + locator + "']/tbody/";
+                }
+            } else {
+                if (locator.startsWith("xpath=")) {
+                    locator = locator.substring(locator.indexOf('=', 1) + 1);
+                }
+                if (HtmlElementUtils.locateElements(locator + "/tbody").size() &gt; 0) {
+                    xPathBase = locator + "/tbody/";
+                } else {
+                    xPathBase = locator + "//";
+                }
+            }
+        } else {
+            throw new NoSuchElementException("Table" + this.getLocator() + " does not exist.");
+        }
+        return xPathBase;
+    }
+}</t>
+  </si>
+  <si>
+    <t>public class Foo {
+public static void addCookie(HttpServletRequest request, HttpServletResponse response, String name,
+      String value, String path, int age) {
+    LOG.debug("add cookie[name:{},value={},path={}]", new String[] { name, value, path });
+    Cookie cookie = null;
+    try {
+      cookie = new Cookie(name, URLEncoder.encode(value, "utf-8"));
+    } catch (UnsupportedEncodingException e) {
+      throw new RuntimeException(e);
+    }
+    cookie.setSecure(false);
+    cookie.setPath(path);
+    cookie.setMaxAge(age);
+    cookie.setHttpOnly(true);
+    response.addCookie(cookie);
+  }
+}</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>public class Foo {
+@Override
+    public void verify(Context context, Path file) throws VerifyException, IOException {
+        String expectedSha512sum;
+        try {
+            if (context.sha512sum == null) {
+                log.debug("No sha512 checksum specified, skipping verification");
+                return;
+            } else if (context.sha512sum.equalsIgnoreCase(".sha512")) {
+                String url = context.url.substring(0, context.url.lastIndexOf(".")) + ".sha512";
+                expectedSha512sum = getUrlContents(url).split(" ")[0].trim();
+            } else if (context.sha512sum.startsWith("http")) {
+                expectedSha512sum = getUrlContents(context.sha512sum).split(" ")[0].trim();
+            } else {
+                expectedSha512sum = context.sha512sum;
+            }
+        } catch (IOException e) {
+            throw new VerifyException(e, "SHA512 checksum verification failed, could not download SHA512 file ({})", context.sha512sum);
+        }
+        log.debug("Verifying sha512 checksum of file {}", file.getFileName());
+        String actualSha512sum = DigestUtils.sha512Hex(Files.newInputStream(file));
+        if (actualSha512sum.equalsIgnoreCase(expectedSha512sum)) {
+            log.debug("Checksum OK");
+            return;
+        }
+        throw new VerifyException("SHA512 checksum of downloaded file " + file.getFileName()
+                + " does not match that from plugin descriptor. Got " + actualSha512sum
+                + " but expected " + expectedSha512sum);
+    }
+}</t>
+  </si>
+  <si>
+    <t>public class Foo {
+public static String toBase64(byte[] byteArray) {
+        String result = null;
+        if (byteArray != null) {
+            result = Base64.encodeBase64String(byteArray);
+        }
+        return result;
+    }
+}</t>
+  </si>
+  <si>
+    <t>public class Foo {
+public static byte[] readAllBytes(java.nio.file.Path path) throws IOException {
+		try (SeekableByteChannel channel = Files.newByteChannel(path);
+			InputStream in = Channels.newInputStream(channel)) {
+			long size = channel.size();
+			if (size &gt; (long) MAX_BUFFER_SIZE) {
+				throw new OutOfMemoryError("Required array size too large");
+			}
+			return read(in, (int) size);
+		}
+	}
+}</t>
+  </si>
+  <si>
+    <t>public class Foo {
+public void setIcon(Icon icon) {
+        Icon old = null;
+        if (iconInfo == CommandButtonIconInfo.BLANK_ICON_INFO) {
+            if (icon != null) {
+                // New IconInfo fires event
+                setIconInfo(new CommandButtonIconInfo(icon));
+            }
+        }
+        else {
+            old = iconInfo.getIcon();
+            this.iconInfo.setIcon(icon);
+        }
+        firePropertyChange(ICON_PROPERTY, old, icon);
+    }
+}</t>
+  </si>
+  <si>
+    <t>public class Foo {
+@Override
+    public Client cookie(Cookie cookie) {
+        possiblyAddHeader(HttpHeaders.COOKIE, cookie.toString());
+        return this;
+    }
+}</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>public class Foo {
+@Override
+    protected void onDraw(Canvas canvas) {
+        super.onDraw(canvas);
+        circle = circlePaths.get(0);
+        circle.center[0] = maxLength * mInterpolatedTime;
+        RectF ball1 = new RectF();
+        ball1.left = circle.center[0] - circle.radius;
+        ball1.top = circle.center[1] - circle.radius;
+        ball1.right = ball1.left + circle.radius * 2;
+        ball1.bottom = ball1.top + circle.radius * 2;
+        canvas.drawCircle(ball1.centerX(), ball1.centerY(), circle.radius, paint);
+        for (int i = 1, l = circlePaths.size(); i &lt; l; i++) {
+            metaball(canvas, i, 0, 0.6f, handle_len_rate, radius * 4f);
+        }
+    }
+}</t>
+  </si>
+  <si>
+    <t>public class Foo {
+public static List&lt;Hash&gt; calculateHashes(File file) throws IOException {
+        if (file == null || !file.exists() || !file.canRead()) {
+            return null;
+        }
+        final List&lt;Hash&gt; hashes = new ArrayList&lt;&gt;();
+        try (InputStream fis = Files.newInputStream(file.toPath())) {
+            hashes.add(new Hash(Hash.Algorithm.MD5, DigestUtils.md5Hex(fis)));
+        }
+        try (InputStream fis = Files.newInputStream(file.toPath())) {
+            hashes.add(new Hash(Hash.Algorithm.SHA1, DigestUtils.sha1Hex(fis)));
+        }
+        try (InputStream fis = Files.newInputStream(file.toPath())) {
+            hashes.add(new Hash(Hash.Algorithm.SHA_256, DigestUtils.sha256Hex(fis)));
+        }
+        try (InputStream fis = Files.newInputStream(file.toPath())) {
+            hashes.add(new Hash(Hash.Algorithm.SHA_384, DigestUtils.sha384Hex(fis)));
+        }
+        try (InputStream fis = Files.newInputStream(file.toPath())) {
+            hashes.add(new Hash(Hash.Algorithm.SHA_512, DigestUtils.sha512Hex(fis)));
+        }
+        return hashes;
+    }
+}</t>
+  </si>
+  <si>
+    <t>public class Foo {
 public static String getAbsolutePath(URL url) {
         try {
             return url != null ? Paths.get(url.toURI()).toAbsolutePath().toString() : null;
@@ -462,6 +426,82 @@
         }
     }
 }</t>
+  </si>
+  <si>
+    <t>public class Foo {
+public SafeUrl toSafeUrl() {
+    Preconditions.checkState(
+        getContentKind() == ContentKind.URI,
+        "toSafeUrl() only valid for SanitizedContent of kind URI, is: %s",
+        getContentKind());
+    return UncheckedConversions.safeUrlFromStringKnownToSatisfyTypeContract(getContent());
+  }
+}</t>
+  </si>
+  <si>
+    <t>public class Foo {
+public static byte[] readAllBytes(java.nio.file.Path path) throws IOException {
+  try (SeekableByteChannel channel = Files.newByteChannel(path);
+   InputStream in = Channels.newInputStream(channel)) {
+   long size = channel.size();
+   if (size &gt; (long) MAX_BUFFER_SIZE) {
+    throw new OutOfMemoryError("Required array size too large");
+   }
+   return read(in, (int) size);
+  }
+ }
+}</t>
+  </si>
+  <si>
+    <t>public class Foo {
+private &lt;T&gt; HttpUriRequest prepareRequest(URI uri, Map&lt;String, String&gt; headers, String jsonData) {
+        HttpUriRequest httpRequest;
+        if (jsonData != null) {
+            // POST data
+            HttpPost httpPost = new HttpPost(uri);
+            httpPost.setEntity(new StringEntity(jsonData, ContentType.APPLICATION_JSON));
+            httpRequest = httpPost;
+        } else {
+            // GET request
+            httpRequest = new HttpGet(uri);
+        }
+        httpRequest.addHeader(HttpHeaders.ACCEPT, "application/json");
+        headers.forEach(httpRequest::addHeader);
+        return httpRequest;
+    }
+}</t>
+  </si>
+  <si>
+    <t>public class Foo {
+public static Xml readAllFromResource(String resourceName)  {
+        InputStream is = XmlReader.class.getResourceAsStream(resourceName);
+        XmlReader reader = new XmlReader(is);
+        Xml xml = reader.read("node()");
+        reader.close();
+        return xml;
+    }
+}</t>
+  </si>
+  <si>
+    <t>public class Foo {
+protected void addRequestCookies(final HttpServletRequest httpServletRequest, final Map&lt;String, List&lt;Object&gt;&gt; attributes) {
+        final Cookie[] cookies = httpServletRequest.getCookies();
+        if (cookies == null) {
+            return;
+        }
+        for (final Cookie cookie : cookies) {
+            final String cookieName = cookie.getName();
+            if (this.cookieAttributeMapping.containsKey(cookieName)) {
+                for (final String attributeName : this.cookieAttributeMapping.get(cookieName)) {
+                    attributes.put(attributeName, list(cookie.getValue()));
+                }
+            }
+        }
+    }
+}</t>
+  </si>
+  <si>
+    <t>A4</t>
   </si>
   <si>
     <t>public class Foo {
@@ -473,105 +513,6 @@
 			throw new UtilException(e, "To absolute url [{}] base [{}] error!", relativePath, absoluteBasePath);
 		}
 	}
-}</t>
-  </si>
-  <si>
-    <t>public class Foo {
-@Pure
-	public static URL makeAbsolute(File filename, URL current) {
-		if (filename != null) {
-			if (!filename.isAbsolute() &amp;&amp; current != null) {
-				return join(current, filename);
-			}
-			try {
-				return new URL(URISchemeType.FILE.toString() + fromFileStandardToURLStandard(filename.getAbsolutePath()));
-			} catch (MalformedURLException exception) {
-				// ignore error
-			}
-		}
-		return null;
-	}
-}</t>
-  </si>
-  <si>
-    <t>public class Foo {
-@Pure
- @SuppressWarnings("checkstyle:cyclomaticcomplexity")
- public static URL makeAbsolute(URL filename, URL current) {
-  if (filename == null) {
-   return null;
-  }
-  final URISchemeType scheme = URISchemeType.getSchemeType(filename);
-  switch (scheme) {
-  case JAR:
-   try {
-    URL jarUrl = getJarURL(filename);
-    jarUrl = makeAbsolute(jarUrl, current);
-    final File jarFile = getJarFile(filename);
-    return toJarURL(jarUrl, jarFile);
-   } catch (MalformedURLException exception) {
-    // Ignore error
-   }
-   break;
-  case FILE:
-   final File file = new File(filename.getFile());
-   if (!file.isAbsolute() &amp;&amp; current != null) {
-    return join(current, file);
-   }
-   break;
-   //$CASES-OMITTED$
-  default:
-   // do not change the URL
-  }
-  return filename;
- }
-}</t>
-  </si>
-  <si>
-    <t>public class Foo {
-public static String getAbsoluteUri(String relativeUri, String baseUri) {
-        if (isAbsoluteUri(relativeUri)) {
-            // URI is null or already absolute
-            return relativeUri;
-        }
-        try {
-            URL url = new URL(new URL(m_baseUrl, baseUri), relativeUri);
-            StringBuffer result = new StringBuffer(100);
-            result.append(url.getPath());
-            if (url.getQuery() != null) {
-                result.append('?');
-                result.append(url.getQuery());
-            }
-            if (url.getRef() != null) {
-                result.append('#');
-                result.append(url.getRef());
-            }
-            return result.toString();
-        } catch (MalformedURLException e) {
-            LOG.debug(e.getLocalizedMessage(), e);
-            return relativeUri;
-        }
-    }
-}</t>
-  </si>
-  <si>
-    <t>public class Foo {
-public static String toBase64(Image image, String imageType) {
-		final ByteArrayOutputStream out = new ByteArrayOutputStream();
-		write(image, imageType, out);
-		return Base64.encode(out.toByteArray());
-	}
-}</t>
-  </si>
-  <si>
-    <t>public class Foo {
-public static String toBase64(byte[] byteArray) {
-        String result = null;
-        if (byteArray != null) {
-            result = Base64.encodeBase64String(byteArray);
-        }
-        return result;
-    }
 }</t>
   </si>
   <si>
@@ -597,115 +538,6 @@
   </si>
   <si>
     <t>public class Foo {
-public static String convertToBase64(String source) {
-        if (source == null) {
-            return null;
-        }
-        return Base64.encodeBase64URLSafeString(StringUtils.getBytesUtf8(source));
-    }
-}</t>
-  </si>
-  <si>
-    <t>public class Foo {
-public static String convertToBase64Encoding(String hexEncodedChecksum) {
-        byte[] checksumBytes = hexStringToByteArray(hexEncodedChecksum);
-        return new String(Base64.encodeBase64(checksumBytes));
-    }
-}</t>
-  </si>
-  <si>
-    <t>public class Foo {
-public static String imgToBase64Str(BufferedImage image, String formatName) {
-        ByteArrayOutputStream baos = new ByteArrayOutputStream();
-        String base64Str = null;
-        try {
-            ImageIO.write(image, formatName == null ? "jpeg" : formatName, baos);
-            byte[] bytes = baos.toByteArray();
-            base64Str = CommonUtils.bytesToBase64Str(bytes);
-        } catch (IOException e) {
-            throw new RuntimeException(e);
-        } finally {
-            CommonUtils.closeIOStream(null, baos);
-        }
-        return base64Str;
-    }
-}</t>
-  </si>
-  <si>
-    <t>public class Foo {
-@Override
-	public String encode(Image image) {
-		if (image == null) {
-			return null;
-		}
-		ByteArrayOutputStream byteArrayOutputStream = new ByteArrayOutputStream();
-		try {
-			ImageIO.write((BufferedImage) image, FORMAT, byteArrayOutputStream);
-			byte[] imageData = byteArrayOutputStream.toByteArray();
-			return Base64.encodeBase64String(imageData);
-		} catch (IOException e) {
-			throw new RuntimeException(e);
-		}
-	}
-}</t>
-  </si>
-  <si>
-    <t>public class Foo {
-private static boolean isSafeUrl(String url, Set&lt;CustomSafeUrlScheme&gt; extraAllowedSchemes) {
-    String lowerCased = url.toLowerCase();
-    // If some Unicode character lower cases to something that ends up matching these ASCII ones,
-    // it's harmless.
-    for (String scheme : DEFAULT_SAFE_SCHEMES) {
-      if (lowerCased.startsWith(scheme + ":")) {
-        return true;
-      }
-    }
-    for (CustomSafeUrlScheme scheme : extraAllowedSchemes) {
-      /**
-       * For "-" in a custom URL scheme, it's not possible to write a proto enum with "-" in the
-       * field name. In proto, it has to be "_". But we can safely convert all "_" in the proto name
-       * to "-", since according to the URL Living Standard, a URL-scheme string must be one ASCII
-       * alpha, followed by zero or more of ASCII alphanumeric, "+", "-", and ".".
-       *
-       * @see https://url.spec.whatwg.org/#url-syntax
-       */
-      if (lowerCased.startsWith(scheme.name().toLowerCase().replace('_', '-') + ":")) {
-        return true;
-      }
-    }
-    for (int i = 0; i &lt; url.length(); i++) {
-      switch (url.charAt(i)) {
-        case '/':
-        case '?':
-        case '#':
-          // After this the string can end or contain anything else, it won't be interpreted
-          // as the scheme.
-          return true;
-        case ':':
-          // This character is not allowed before seeing one of the above characters.
-          return false;
-        default:
-          // Other characters ok.
-          continue;
-      }
-    }
-    return true;
-  }
-}</t>
-  </si>
-  <si>
-    <t>public class Foo {
-public SafeUrl toSafeUrl() {
-    Preconditions.checkState(
-        getContentKind() == ContentKind.URI,
-        "toSafeUrl() only valid for SanitizedContent of kind URI, is: %s",
-        getContentKind());
-    return UncheckedConversions.safeUrlFromStringKnownToSatisfyTypeContract(getContent());
-  }
-}</t>
-  </si>
-  <si>
-    <t>public class Foo {
 private static void checkLinkDependentAttributes(
       @Nullable String relValue, AttributeContract hrefValueContract) {
     if (hrefValueContract.equals(AttributeContract.SAFE_URL)
@@ -717,6 +549,187 @@
               + "&gt;. Did you intend to use a TrustedResourceUrl?");
     }
   }
+}</t>
+  </si>
+  <si>
+    <t>public class Foo {+AG6:AG7
+public static byte[] readAllBytes(java.nio.file.Path path) throws IOException {
+		try (SeekableByteChannel channel = Files.newByteChannel(path);
+			InputStream in = Channels.newInputStream(channel)) {
+			long size = channel.size();
+			if (size &gt; (long) MAX_BUFFER_SIZE) {
+				throw new OutOfMemoryError("Required array size too large");
+			}
+			return read(in, (int) size);
+		}
+	}
+}</t>
+  </si>
+  <si>
+    <t>public class Foo {
+public CloseableHttpResponse postJson(String url, String json, Map&lt;String, String&gt; reqHeaders) throws IOException {
+        CloseableHttpClient req = getClient();
+        CloseableHttpResponse resp = null;
+        HttpPost post = new HttpPost(url);
+        addHeaders(post, reqHeaders);
+        post.setHeader(json, url);
+        StringEntity input = new StringEntity(json, ContentType.APPLICATION_JSON);
+        post.setEntity(input);
+        resp = req.execute(post);
+        return resp;
+    }
+}</t>
+  </si>
+  <si>
+    <t>public class Foo {
+private Object readMetadataFromXML(InputSource source, Class target)
+            throws MalformedURLException, ParserConfigurationException, SAXException, IOException
+    {
+        // TODO: make this configurable
+        boolean validate = false;
+        // get a xml reader instance:
+        SAXParserFactory factory = SAXParserFactory.newInstance();
+        log.info("RepositoryPersistor using SAXParserFactory : " + factory.getClass().getName());
+        if (validate)
+        {
+            factory.setValidating(true);
+        }
+        SAXParser p = factory.newSAXParser();
+        XMLReader reader = p.getXMLReader();
+        if (validate)
+        {
+            reader.setErrorHandler(new OJBErrorHandler());
+        }
+        Object result;
+        if (DescriptorRepository.class.equals(target))
+        {
+            // create an empty repository:
+            DescriptorRepository repository = new DescriptorRepository();
+            // create handler for building the repository structure
+            ContentHandler handler = new RepositoryXmlHandler(repository);
+            // tell parser to use our handler:
+            reader.setContentHandler(handler);
+            reader.parse(source);
+            result = repository;
+        }
+        else if (ConnectionRepository.class.equals(target))
+        {
+            // create an empty repository:
+            ConnectionRepository repository = new ConnectionRepository();
+            // create handler for building the repository structure
+            ContentHandler handler = new ConnectionDescriptorXmlHandler(repository);
+            // tell parser to use our handler:
+            reader.setContentHandler(handler);
+            reader.parse(source);
+            //LoggerFactory.getBootLogger().info("loading XML took " + (stop - start) + " msecs");
+            result = repository;
+        }
+        else
+            throw new MetadataException("Could not build a repository instance for '" + target +
+                    "', using source " + source);
+        return result;
+    }
+}</t>
+  </si>
+  <si>
+    <t>public class Foo {
+public String encode(Cookie cookie) {
+    if (cookie == null) {
+      throw new NullPointerException("cookie");
+    }
+    final String name = cookie.name();
+    final String value = cookie.value() != null ? cookie.value() : "";
+    validateCookie(name, value);
+    StringBuilder buf = new StringBuilder();
+    if (cookie.wrap()) {
+      addQuoted(buf, name, value);
+    } else {
+      add(buf, name, value);
+    }
+    if (cookie.maxAge() != Integer.MIN_VALUE) {
+      add(buf, CookieHeaderNames.MAX_AGE, cookie.maxAge());
+      Date expires =
+          cookie.maxAge() &lt;= 0
+              ? new Date(0) // Set expires to the Unix epoch
+              : new Date(cookie.maxAge() * 1000L + System.currentTimeMillis());
+      add(buf, CookieHeaderNames.EXPIRES, HttpHeaderDateFormat.get().format(expires));
+    }
+    if (cookie.sameSite() != null) {
+      add(buf, CookieHeaderNames.SAMESITE, cookie.sameSite());
+    }
+    if (cookie.path() != null) {
+      add(buf, CookieHeaderNames.PATH, cookie.path());
+    }
+    if (cookie.domain() != null) {
+      add(buf, CookieHeaderNames.DOMAIN, cookie.domain());
+    }
+    if (cookie.isSecure()) {
+      add(buf, CookieHeaderNames.SECURE);
+    }
+    if (cookie.isHttpOnly()) {
+      add(buf, CookieHeaderNames.HTTPONLY);
+    }
+    return stripTrailingSeparator(buf);
+  }
+}</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>public class Foo {
+public void verifyIntegrity()
+    {
+        LinkedHashSet&lt;String&gt; noLongerActive = new LinkedHashSet&lt;String&gt;(myWorkUnits);
+        noLongerActive.removeAll(allWorkUnits.keySet());
+        for (String workUnit : noLongerActive) {
+            shutdownWork(workUnit, true);
+        }
+        // Check the status of pegged work units to ensure that this node is not serving
+        // a work unit that is pegged to another node in the cluster.
+        for (String workUnit : myWorkUnits) {
+            String claimPath = workUnitClaimPath(workUnit);
+            if (!balancingPolicy.isFairGame(workUnit) &amp;&amp; !balancingPolicy.isPeggedToMe(workUnit)) {
+                LOG.info("Discovered I'm serving a work unit that's now " +
+                        "pegged to someone else. Shutting down {}", workUnit);
+                        shutdownWork(workUnit, true);
+            } else if (workUnitMap.containsKey(workUnit) &amp;&amp; !workUnitMap.get(workUnit).equals(myNodeID)
+                    &amp;&amp; !claimedForHandoff.contains(workUnit) &amp;&amp; !znodeIsMe(claimPath)) {
+                LOG.info("Discovered I'm serving a work unit that's now " +
+                        "claimed by {} according to ZooKeeper. Shutting down {}",
+                        workUnitMap.get(workUnit), workUnit);
+                shutdownWork(workUnit, true);
+            }
+        }
+    }
+}</t>
+  </si>
+  <si>
+    <t>public class Foo {
+@Pure
+	public static URL makeAbsolute(File filename, URL current) {
+		if (filename != null) {
+			if (!filename.isAbsolute() &amp;&amp; current != null) {
+				return join(current, filename);
+			}
+			try {
+				return new URL(URISchemeType.FILE.toString() + fromFileStandardToURLStandard(filename.getAbsolutePath()));
+			} catch (MalformedURLException exception) {
+				// ignore error
+			}
+		}
+		return null;
+	}
+}</t>
+  </si>
+  <si>
+    <t>public class Foo {
+public static String convertToBase64(String source) {
+        if (source == null) {
+            return null;
+        }
+        return Base64.encodeBase64URLSafeString(StringUtils.getBytesUtf8(source));
+    }
 }</t>
   </si>
   <si>
@@ -744,175 +757,6 @@
 		insert(safeUrl, newArticles);
 		// Notify callback
 		handler.onLoaded(safe, callback, newArticles);
-	}
-}</t>
-  </si>
-  <si>
-    <t>public class Foo {
-@JsonIgnore
-    public Set&lt;String&gt; getHealthCheckUrls() {
-        Set&lt;String&gt; healthCheckUrlSet = new LinkedHashSet&lt;String&gt;();
-        if (this.isUnsecurePortEnabled &amp;&amp; healthCheckUrl != null &amp;&amp; !healthCheckUrl.isEmpty()) {
-            healthCheckUrlSet.add(healthCheckUrl);
-        }
-        if (this.isSecurePortEnabled &amp;&amp; secureHealthCheckUrl != null &amp;&amp; !secureHealthCheckUrl.isEmpty()) {
-            healthCheckUrlSet.add(secureHealthCheckUrl);
-        }
-        return healthCheckUrlSet;
-    }
-}</t>
-  </si>
-  <si>
-    <t>public class Foo {
-@Nonnull
-    public HttpHealthCheck addHealthCheck(String name, String url, int interval, long timeout) {
-        if (name == null || name.trim().length() == 0) {
-            throw new IllegalArgumentException("The name must not be null or empty.");
-        }
-        if (url == null || url.trim().length() == 0) {
-            throw new IllegalArgumentException("The URL must not be null or empty.");
-        }
-        if (!Url.isUrl(url)) {
-            throw new IllegalArgumentException(url + " is not a valid URL.");
-        }
-        if (interval &lt; 0) {
-            throw new IllegalArgumentException("The polling interval must be zero or a positive integer.");
-        }
-        if (timeout &lt; 0) {
-            throw new IllegalArgumentException("The timeout must be zero or a positive integer.");
-        }
-        HttpHealthCheck healthCheck = new HttpHealthCheck(name, url, interval, timeout);
-        healthChecks.add(healthCheck);
-        return healthCheck;
-    }
-}</t>
-  </si>
-  <si>
-    <t>public class Foo {
-public void verify(HttpServletRequest servletRequest, byte[] serializedRequestEnvelope, RequestEnvelope deserializedRequestEnvelope) {
-        String baseEncoded64Signature = servletRequest.getHeader(ServletConstants.SIGNATURE_REQUEST_HEADER);
-        String signingCertificateChainUrl = servletRequest.getHeader(ServletConstants.SIGNATURE_CERTIFICATE_CHAIN_URL_REQUEST_HEADER);
-        if ((baseEncoded64Signature == null) || (signingCertificateChainUrl == null)) {
-            throw new SecurityException(
-                    "Missing signature/certificate for the provided skill request");
-        }
-        try {
-            X509Certificate signingCertificate;
-            if (CERTIFICATE_CACHE.containsKey(signingCertificateChainUrl)) {
-                signingCertificate = CERTIFICATE_CACHE.get(signingCertificateChainUrl);
-                /*
-                 * check the before/after dates on the certificate are still valid for the present
-                 * time
-                 */
-                signingCertificate.checkValidity();
-            } else {
-                signingCertificate = retrieveAndVerifyCertificateChain(signingCertificateChainUrl);
-                // if certificate is valid, then add it to the cache
-                CERTIFICATE_CACHE.put(signingCertificateChainUrl, signingCertificate);
-            }
-            // verify that the request was signed by the provided certificate
-            Signature signature = Signature.getInstance(ServletConstants.SIGNATURE_ALGORITHM);
-            signature.initVerify(signingCertificate.getPublicKey());
-            signature.update(serializedRequestEnvelope);
-            if (!signature.verify(Base64.decodeBase64(baseEncoded64Signature
-                    .getBytes(ServletConstants.CHARACTER_ENCODING)))) {
-                throw new SecurityException(
-                        "Failed to verify the signature/certificate for the provided skill request");
-            }
-        } catch (GeneralSecurityException | IOException ex) {
-            throw new SecurityException(
-                    "Failed to verify the signature/certificate for the provided skill request",
-                    ex);
-        }
-    }
-}</t>
-  </si>
-  <si>
-    <t>public class Foo {
-public static boolean checkUrl(CmsObject cms, String check) {
-        // first, create an URI from the string representation
-        URI uri = null;
-        try {
-            uri = new CmsUriSplitter(check, true).toURI();
-        } catch (URISyntaxException exc) {
-            return false;
-        }
-        try {
-            if (!uri.isAbsolute()) {
-                return cms.existsResource(cms.getRequestContext().removeSiteRoot(uri.getPath()));
-            } else {
-                URL url = uri.toURL();
-                if ("http".equals(url.getProtocol())) {
-                    // ensure that file is encoded properly
-                    HttpURLConnection httpcon = (HttpURLConnection)url.openConnection();
-                    int responseCode = httpcon.getResponseCode();
-                    // accepting all status codes 2xx success and 3xx - redirect
-                    return ((responseCode &gt;= 200) &amp;&amp; (responseCode &lt; 400));
-                } else {
-                    return true;
-                }
-            }
-        } catch (MalformedURLException mue) {
-            return false;
-        } catch (Exception ex) {
-            return false;
-        }
-    }
-}</t>
-  </si>
-  <si>
-    <t>public class Foo {
-public void checkForUpdate(UpdateCheckListener updateCheckListener) {
-        listeners.add(updateCheckListener);
-        if (scheduler != null) {
-            scheduler.schedule(new UpdateCheckTask(this, versionServiceUrl, productName), 0, SECONDS);
-        } else {
-            // the scheduler won't be provided if the service isn't actually running,
-            // but management may still ask for a check on update
-            new UpdateCheckTask(this, versionServiceUrl, productName).run();
-        }
-    }
-}</t>
-  </si>
-  <si>
-    <t>public class Foo {
-public static byte[] readAllBytes(java.nio.file.Path path) throws IOException {
-		try (SeekableByteChannel channel = Files.newByteChannel(path);
-			InputStream in = Channels.newInputStream(channel)) {
-			long size = channel.size();
-			if (size &gt; (long) MAX_BUFFER_SIZE) {
-				throw new OutOfMemoryError("Required array size too large");
-			}
-			return read(in, (int) size);
-		}
-	}
-}</t>
-  </si>
-  <si>
-    <t>public class Foo {
-public static byte[] readAllBytes(java.nio.file.Path path) throws IOException {
-  try (SeekableByteChannel channel = Files.newByteChannel(path);
-   InputStream in = Channels.newInputStream(channel)) {
-   long size = channel.size();
-   if (size &gt; (long) MAX_BUFFER_SIZE) {
-    throw new OutOfMemoryError("Required array size too large");
-   }
-   return read(in, (int) size);
-  }
- }
-}</t>
-  </si>
-  <si>
-    <t>public class Foo {+AG6:AG7
-public static byte[] readAllBytes(java.nio.file.Path path) throws IOException {
-		try (SeekableByteChannel channel = Files.newByteChannel(path);
-			InputStream in = Channels.newInputStream(channel)) {
-			long size = channel.size();
-			if (size &gt; (long) MAX_BUFFER_SIZE) {
-				throw new OutOfMemoryError("Required array size too large");
-			}
-			return read(in, (int) size);
-		}
 	}
 }</t>
   </si>
@@ -955,6 +799,133 @@
         // Return buffer and number of bytes read
         return new SimpleEntry&lt;&gt;((bufLength == totBytesRead) ? buf : Arrays.copyOf(buf, totBytesRead),
                 totBytesRead);
+    }
+}</t>
+  </si>
+  <si>
+    <t>public class Foo {
+public static boolean setIcon(MarkerOptions markerOptions, IconRow icon, float density, IconCache iconCache) {
+        boolean iconSet = false;
+        if (icon != null) {
+            Bitmap iconImage = createIcon(icon, density, iconCache);
+            markerOptions.icon(BitmapDescriptorFactory
+                    .fromBitmap(iconImage));
+            iconSet = true;
+            double anchorU = icon.getAnchorUOrDefault();
+            double anchorV = icon.getAnchorVOrDefault();
+            markerOptions.anchor((float) anchorU, (float) anchorV);
+        }
+        return iconSet;
+    }
+}</t>
+  </si>
+  <si>
+    <t>public class Foo {
+public String postRequest(final URL url, final String jsonBody) throws MovieDbException {
+        try {
+            HttpPost httpPost = new HttpPost(url.toURI());
+            httpPost.addHeader(HTTP.CONTENT_TYPE, APPLICATION_JSON);
+            httpPost.addHeader(HttpHeaders.ACCEPT, APPLICATION_JSON);
+            StringEntity params = new StringEntity(jsonBody, ContentType.APPLICATION_JSON);
+            httpPost.setEntity(params);
+            return validateResponse(DigestedResponseReader.postContent(httpClient, httpPost, CHARSET), url);
+        } catch (URISyntaxException | IOException ex) {
+            throw new MovieDbException(ApiExceptionType.CONNECTION_ERROR, null, url, ex);
+        }
+    }
+}</t>
+  </si>
+  <si>
+    <t>public class Foo {
+private void adjustModuleConfig() {
+        Locale l = CmsLocaleManager.getLocale("en");
+        try {
+            CmsResource config = m_cms.readResource(m_config.getValue());
+            CmsFile configFile = m_cms.readFile(config);
+            CmsXmlContent xmlContent = CmsXmlContentFactory.unmarshal(m_cms, configFile);
+            int number = xmlContent.getIndexCount(XMLPath.CONFIG_RESOURCETYPE, l) + 1;
+            createParentXmlElements(
+                xmlContent,
+                XMLPath.CONFIG_RESOURCETYPE + XMLPath.num(number) + XMLPath.CONFIG_RESOURCETYPE_TYPENAME,
+                l);
+            I_CmsXmlContentValue v = xmlContent.getValue(
+                XMLPath.CONFIG_RESOURCETYPE + XMLPath.num(number) + XMLPath.CONFIG_RESOURCETYPE_TYPENAME,
+                l);
+            v.setStringValue(m_cms, m_typeShortName.getValue());
+            v = xmlContent.addValue(
+                m_cms,
+                XMLPath.CONFIG_RESOURCETYPE + XMLPath.num(number) + XMLPath.CONFIG_RESOURCETYPE_NAMEPATTERN,
+                l,
+                CmsXmlUtils.getXpathIndexInt(
+                    XMLPath.CONFIG_RESOURCETYPE + XMLPath.num(number) + XMLPath.CONFIG_RESOURCETYPE_NAMEPATTERN) - 1);
+            v.setStringValue(m_cms, getNamePattern());
+            configFile.setContents(xmlContent.marshal());
+            CmsLockUtil.ensureLock(m_cms, configFile);
+            m_cms.writeFile(configFile);
+            CmsLockUtil.tryUnlock(m_cms, configFile);
+        } catch (CmsException e) {
+            LOG.error("Can't read module config resource", e);
+        }
+    }
+}</t>
+  </si>
+  <si>
+    <t>public class Foo {
+public static void storeSessionDataInCookie(String key, String value, ServletResponse response)
+	{
+		Cookie cookie = new Cookie(key, value);
+		cookie.setPath("/");
+		cookie.setMaxAge(-1);//expire when browser closes
+		((HttpServletResponse) response).addCookie(cookie);
+	}
+}</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>public class Foo {
+public static void drawCircle(Graphics g, Point center, int diameter){
+  drawCircle(g, (int) center.getX(), (int) center.getY(), diameter);
+ }
+}</t>
+  </si>
+  <si>
+    <t>public class Foo {
+@Override
+    public void addCookie(Cookie cookie) {
+        super.addCookie(cookie);
+        if(this.cookies == null) {
+            this.cookies = new HashSet&lt;Cookie&gt;();
+        }
+        this.cookies.add(cookie);
+    }
+}</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>public class Foo {
+private void drawCenterCircle(Canvas canvas) {
+        final PieChartData data = dataProvider.getPieChartData();
+        final float circleRadius = originCircleOval.width() / 2f;
+        final float centerRadius = circleRadius * data.getCenterCircleScale();
+        final float centerX = originCircleOval.centerX();
+        final float centerY = originCircleOval.centerY();
+        canvas.drawCircle(centerX, centerY, centerRadius, centerCirclePaint);
+        // Draw center text1 and text2 if not empty.
+        if (!TextUtils.isEmpty(data.getCenterText1())) {
+            final int text1Height = Math.abs(centerCircleText1FontMetrics.ascent);
+            if (!TextUtils.isEmpty(data.getCenterText2())) {
+                // Draw text 2 only if text 1 is not empty.
+                final int text2Height = Math.abs(centerCircleText2FontMetrics.ascent);
+                canvas.drawText(data.getCenterText1(), centerX, centerY - text1Height * 0.2f, centerCircleText1Paint);
+                canvas.drawText(data.getCenterText2(), centerX, centerY + text2Height, centerCircleText2Paint);
+            } else {
+                canvas.drawText(data.getCenterText1(), centerX, centerY + text1Height / 4, centerCircleText1Paint);
+            }
+        }
     }
 }</t>
   </si>
@@ -1039,6 +1010,70 @@
   </si>
   <si>
     <t>public class Foo {
+public static Icon getStockIcon(String name) {
+    SoftReference&lt;Icon&gt; ref = iconcache.get(name);
+    if(ref != null) {
+      Icon icon = ref.get();
+      if(icon != null) {
+        return icon;
+      }
+    }
+    java.net.URL imgURL = StockIcon.class.getResource(name + ".png");
+    if(imgURL != null) {
+      Icon icon = new ImageIcon(imgURL);
+      iconcache.put(name, new SoftReference&lt;&gt;(icon));
+      return icon;
+    }
+    LoggingUtil.warning("Could not find stock icon: " + name);
+    return null;
+  }
+}</t>
+  </si>
+  <si>
+    <t>public class Foo {
+public static Object executeXPath(Node document, String xpathExpression, Map&lt;String, String&gt; namespaceMapping, QName result)
+                throws XPathException, MarshallingException
+    {
+        NamespaceMapContext mapContext = new NamespaceMapContext(namespaceMapping);
+        try
+        {
+            XPathFactory xPathfactory = XPathFactory.newInstance();
+            XPath xpath = xPathfactory.newXPath();
+            xpath.setNamespaceContext(mapContext);
+            XPathExpression expr = xpath.compile(xpathExpression);
+            return executeXPath(document, expr, result);
+        }
+        catch (XPathExpressionException e)
+        {
+            throw new XPathException("Xpath(" + xpathExpression + ") cannot be compiled", e);
+        }
+        catch (Exception e)
+        {
+            throw new MarshallingException("Exception unmarshalling XML.", e);
+        }
+    }
+}</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>public class Foo {
+@JsonIgnore
+    public Set&lt;String&gt; getHealthCheckUrls() {
+        Set&lt;String&gt; healthCheckUrlSet = new LinkedHashSet&lt;String&gt;();
+        if (this.isUnsecurePortEnabled &amp;&amp; healthCheckUrl != null &amp;&amp; !healthCheckUrl.isEmpty()) {
+            healthCheckUrlSet.add(healthCheckUrl);
+        }
+        if (this.isSecurePortEnabled &amp;&amp; secureHealthCheckUrl != null &amp;&amp; !secureHealthCheckUrl.isEmpty()) {
+            healthCheckUrlSet.add(secureHealthCheckUrl);
+        }
+        return healthCheckUrlSet;
+    }
+}</t>
+  </si>
+  <si>
+    <t>public class Foo {
 private String readFile(String path) {
         String result = (String)CmsVfsMemoryObjectCache.getVfsMemoryObjectCache().getCachedObject(m_cms, path);
         if (result == null) {
@@ -1053,6 +1088,66 @@
             CmsVfsMemoryObjectCache.getVfsMemoryObjectCache().putCachedObject(m_cms, path, result);
         }
         return result;
+    }
+}</t>
+  </si>
+  <si>
+    <t>public class Foo {
+protected WebElement getSocialIcon(String social) {
+		logger.debug("getSocialIcon " + social);
+		By linkLocator = By.cssSelector("a." + social);
+		WebElement foundSocialIcon = null;
+		for (WebElement socialIcon : socialIcons) {
+			try {
+				socialIcon.findElement(linkLocator);
+				foundSocialIcon = socialIcon;
+			} catch(NoSuchElementException e) {
+				continue;
+			}
+		}
+		assertNotNull("social button for " + social + " not found.", foundSocialIcon);
+		return foundSocialIcon;
+	}
+}</t>
+  </si>
+  <si>
+    <t>public class Foo {
+public static void addCookie(HttpServletRequest request, HttpServletResponse response, String name,
+      public class Foo {
+public static void addCookie(
+		HttpServletRequest request,
+		HttpServletResponse response,
+		String cookieName,
+		String value,
+		String comment,
+		int maxAge,
+		boolean secure,
+		boolean contextOnlyPath
+	) {
+		Cookie newCookie = new Cookie(cookieName, value);
+		if(comment!=null) newCookie.setComment(comment);
+		newCookie.setMaxAge(maxAge);
+		newCookie.setSecure(secure &amp;&amp; request.isSecure());
+		String path;
+		if(contextOnlyPath) {
+			path = request.getContextPath() + "/";
+			//if(path.length()==0) path = "/";
+		} else {
+			path = "/";
+		}
+		newCookie.setPath(path);
+		response.addCookie(newCookie);
+	}
+}</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>public class Foo {
+public static String convertToBase64Encoding(String hexEncodedChecksum) {
+        byte[] checksumBytes = hexStringToByteArray(hexEncodedChecksum);
+        return new String(Base64.encodeBase64(checksumBytes));
     }
 }</t>
   </si>
@@ -1084,6 +1179,174 @@
   </si>
   <si>
     <t>public class Foo {
+public XMLNode parseXML(String root) throws DocFileIOException, SimpleDocletException {
+        if (!xmlElementsMap.containsKey(root)) {
+            try {
+                currentRoot = root;
+                isParsing = false;
+                SAXParserFactory factory = SAXParserFactory.newInstance();
+                SAXParser saxParser = factory.newSAXParser();
+                InputStream in = configuration.getBuilderXML();
+                saxParser.parse(in, this);
+            } catch (IOException | ParserConfigurationException | SAXException e) {
+                String message = (configuration.builderXMLPath == null)
+                        ? configuration.getResources().getText("doclet.exception.read.resource",
+                                Configuration.DEFAULT_BUILDER_XML, e)
+                        : configuration.getResources().getText("doclet.exception.read.file",
+                                configuration.builderXMLPath, e);
+                throw new SimpleDocletException(message, e);
+            }
+        }
+        return xmlElementsMap.get(root);
+    }
+}</t>
+  </si>
+  <si>
+    <t>public class Foo {
+@Override
+    public void addCookie(Cookie cookie) {
+        if (cookie == null) {
+            throw new CmsIllegalArgumentException(Messages.get().container(Messages.ERR_ADD_COOKIE_0));
+        }
+        StringBuffer header = new StringBuffer(128);
+        // name and value
+        header.append(cookie.getName());
+        header.append('=');
+        header.append(cookie.getValue());
+        // add version 1 / RFC 2109 specific information
+        if (cookie.getVersion() == 1) {
+            header.append("; Version=1");
+            // comment
+            if (cookie.getComment() != null) {
+                header.append("; Comment=");
+                header.append(cookie.getComment());
+            }
+        }
+        // domain
+        if (cookie.getDomain() != null) {
+            header.append("; Domain=");
+            header.append(cookie.getDomain());
+        }
+        // max-age / expires
+        if (cookie.getMaxAge() &gt;= 0) {
+            if (cookie.getVersion() == 0) {
+                // old Netscape format
+                header.append("; Expires=");
+                long time;
+                if (cookie.getMaxAge() == 0) {
+                    time = 10000L;
+                } else {
+                    time = System.currentTimeMillis() + (cookie.getMaxAge() * 1000L);
+                }
+                header.append(CmsDateUtil.getOldCookieDate(time));
+            } else {
+                // new RFC 2109 format
+                header.append("; Max-Age=");
+                header.append(cookie.getMaxAge());
+            }
+        }
+        // path
+        if (cookie.getPath() != null) {
+            header.append("; Path=");
+            header.append(cookie.getPath());
+        }
+        // secure
+        if (cookie.getSecure()) {
+            header.append("; Secure");
+        }
+        addHeader("Set-Cookie", header.toString());
+    }
+}</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>public class Foo {
+public static void downloadToFile(S3Object s3Object,
+        final File dstfile, boolean performIntegrityCheck,
+        final boolean appendData,
+        final long expectedFileLength)
+    {
+        createParentDirectoryIfNecessary(dstfile);
+        if (!FileLocks.lock(dstfile)) {
+            throw new FileLockException("Fail to lock " + dstfile
+                    + " for appendData=" + appendData);
+        }
+        OutputStream outputStream = null;
+        try {
+            final long actualLen = dstfile.length();
+            if (appendData &amp;&amp; actualLen != expectedFileLength) {
+                // Fail fast to prevent data corruption
+                throw new IllegalStateException(
+                        "Expected file length to append is "
+                            + expectedFileLength + " but actual length is "
+                            + actualLen + " for file " + dstfile);
+            }
+            outputStream = new BufferedOutputStream(new FileOutputStream(
+                    dstfile, appendData));
+            byte[] buffer = new byte[1024*10];
+            int bytesRead;
+            while ((bytesRead = s3Object.getObjectContent().read(buffer)) &gt; -1) {
+                outputStream.write(buffer, 0, bytesRead);
+            }
+        } catch (IOException e) {
+            s3Object.getObjectContent().abort();
+            throw new SdkClientException(
+                    "Unable to store object contents to disk: " + e.getMessage(), e);
+        } finally {
+            closeQuietly(outputStream, LOG);
+            FileLocks.unlock(dstfile);
+            closeQuietly(s3Object.getObjectContent(), LOG);
+        }
+        if (performIntegrityCheck) {
+            byte[] clientSideHash = null;
+            byte[] serverSideHash = null;
+            try {
+                final ObjectMetadata metadata = s3Object.getObjectMetadata();
+                if (!skipMd5CheckStrategy.skipClientSideValidationPerGetResponse(metadata)) {
+                    clientSideHash = Md5Utils.computeMD5Hash(new FileInputStream(dstfile));
+                    serverSideHash = BinaryUtils.fromHex(metadata.getETag());
+                }
+            } catch (Exception e) {
+                LOG.warn("Unable to calculate MD5 hash to validate download: " + e.getMessage(), e);
+            }
+            if (clientSideHash != null &amp;&amp; serverSideHash != null &amp;&amp; !Arrays.equals(clientSideHash, serverSideHash)) {
+                throw new SdkClientException("Unable to verify integrity of data download.  " +
+                        "Client calculated content hash didn't match hash calculated by Amazon S3.  " +
+                        "The data stored in '" + dstfile.getAbsolutePath() + "' may be corrupt.");
+            }
+        }
+    }
+}</t>
+  </si>
+  <si>
+    <t>public class Foo {
+@Nonnull
+    public HttpHealthCheck addHealthCheck(String name, String url, int interval, long timeout) {
+        if (name == null || name.trim().length() == 0) {
+            throw new IllegalArgumentException("The name must not be null or empty.");
+        }
+        if (url == null || url.trim().length() == 0) {
+            throw new IllegalArgumentException("The URL must not be null or empty.");
+        }
+        if (!Url.isUrl(url)) {
+            throw new IllegalArgumentException(url + " is not a valid URL.");
+        }
+        if (interval &lt; 0) {
+            throw new IllegalArgumentException("The polling interval must be zero or a positive integer.");
+        }
+        if (timeout &lt; 0) {
+            throw new IllegalArgumentException("The timeout must be zero or a positive integer.");
+        }
+        HttpHealthCheck healthCheck = new HttpHealthCheck(name, url, interval, timeout);
+        healthChecks.add(healthCheck);
+        return healthCheck;
+    }
+}</t>
+  </si>
+  <si>
+    <t>public class Foo {
 @Override
     public int decode ( byte[] buffer, int bufferIndex, int len ) throws SMBProtocolDecodingException {
         if ( this.largeFile ) {
@@ -1100,6 +1363,154 @@
         this.byteOffset = SMBUtil.readInt4(buffer, bufferIndex + 2);
         this.lengthInBytes = SMBUtil.readInt4(buffer, bufferIndex + 6);
         return 10;
+    }
+}</t>
+  </si>
+  <si>
+    <t>public class Foo {
+public static ImageIcon getImageIcon(String fileName) {
+		if (fileName == null) {
+			return null;
+		}
+		if (CACHE.size() &gt; 150) {
+			CACHE.clear(); // pour éviter une fuite mémoire potentielle
+		}
+		ImageIcon imageIcon = CACHE.get(fileName);
+		if (imageIcon == null) {
+			final URL url = ImageIconCache.class.getResource(Parameters.getResourcePath(fileName));
+			imageIcon = new ImageIcon(url);
+			CACHE.put(fileName, imageIcon);
+		}
+		return imageIcon;
+	}
+}</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>public class Foo {
+public HashCalculationResult calculateSuperHash(byte[] bytes) throws IOException {
+        HashCalculationResult result = null;
+        // Remove white spaces
+        byte[] bytesWithoutSpaces = stripWhiteSpaces(bytes);
+        long fileSize = bytesWithoutSpaces.length;
+        if (fileSize &lt; FILE_MIN_SIZE_THRESHOLD) {
+            // Ignore files smaller 1/2 kb
+            logger.debug("Ignoring file with size " + FileUtils.byteCountToDisplaySize(fileSize) + ": minimum file size is 512B");
+        } else if (fileSize &lt;= FILE_PARTIAL_HASH_MIN_SIZE) {
+            // Don't calculate msb and lsb hashes for files smaller than 2kb
+            String fullFileHash = calculateByteArrayHash(bytesWithoutSpaces, HashAlgorithm.SHA1);
+            result = new HashCalculationResult(fullFileHash);
+        } else if (fileSize &lt;= FILE_SMALL_SIZE) {
+            // Handle 2kb-&gt;3kb files
+            result = hashBuckets(bytesWithoutSpaces, FILE_SMALL_BUCKET_SIZE);
+        } else {
+            int baseLowNumber = 1;
+            int digits = (int) Math.log10(fileSize);
+            int i = 0;
+            while (i &lt; digits) {
+                baseLowNumber = baseLowNumber * 10;
+                i++;
+            }
+            double highNumber = Math.ceil((fileSize + 1) / (float) baseLowNumber) * baseLowNumber;
+            double lowNumber = highNumber - baseLowNumber;
+            double bucketSize = (highNumber + lowNumber) / 4;
+            result = hashBuckets(bytesWithoutSpaces, bucketSize);
+        }
+        return result;
+    }
+}</t>
+  </si>
+  <si>
+    <t>public class Foo {
+@Pure
+ @SuppressWarnings("checkstyle:cyclomaticcomplexity")
+ public static URL makeAbsolute(URL filename, URL current) {
+  if (filename == null) {
+   return null;
+  }
+  final URISchemeType scheme = URISchemeType.getSchemeType(filename);
+  switch (scheme) {
+  case JAR:
+   try {
+    URL jarUrl = getJarURL(filename);
+    jarUrl = makeAbsolute(jarUrl, current);
+    final File jarFile = getJarFile(filename);
+    return toJarURL(jarUrl, jarFile);
+   } catch (MalformedURLException exception) {
+    // Ignore error
+   }
+   break;
+  case FILE:
+   final File file = new File(filename.getFile());
+   if (!file.isAbsolute() &amp;&amp; current != null) {
+    return join(current, file);
+   }
+   break;
+   //$CASES-OMITTED$
+  default:
+   // do not change the URL
+  }
+  return filename;
+ }
+}</t>
+  </si>
+  <si>
+    <t>public class Foo {
+public static String imgToBase64Str(BufferedImage image, String formatName) {
+        ByteArrayOutputStream baos = new ByteArrayOutputStream();
+        String base64Str = null;
+        try {
+            ImageIO.write(image, formatName == null ? "jpeg" : formatName, baos);
+            byte[] bytes = baos.toByteArray();
+            base64Str = CommonUtils.bytesToBase64Str(bytes);
+        } catch (IOException e) {
+            throw new RuntimeException(e);
+        } finally {
+            CommonUtils.closeIOStream(null, baos);
+        }
+        return base64Str;
+    }
+}</t>
+  </si>
+  <si>
+    <t>public class Foo {
+public void verify(HttpServletRequest servletRequest, byte[] serializedRequestEnvelope, RequestEnvelope deserializedRequestEnvelope) {
+        String baseEncoded64Signature = servletRequest.getHeader(ServletConstants.SIGNATURE_REQUEST_HEADER);
+        String signingCertificateChainUrl = servletRequest.getHeader(ServletConstants.SIGNATURE_CERTIFICATE_CHAIN_URL_REQUEST_HEADER);
+        if ((baseEncoded64Signature == null) || (signingCertificateChainUrl == null)) {
+            throw new SecurityException(
+                    "Missing signature/certificate for the provided skill request");
+        }
+        try {
+            X509Certificate signingCertificate;
+            if (CERTIFICATE_CACHE.containsKey(signingCertificateChainUrl)) {
+                signingCertificate = CERTIFICATE_CACHE.get(signingCertificateChainUrl);
+                /*
+                 * check the before/after dates on the certificate are still valid for the present
+                 * time
+                 */
+                signingCertificate.checkValidity();
+            } else {
+                signingCertificate = retrieveAndVerifyCertificateChain(signingCertificateChainUrl);
+                // if certificate is valid, then add it to the cache
+                CERTIFICATE_CACHE.put(signingCertificateChainUrl, signingCertificate);
+            }
+            // verify that the request was signed by the provided certificate
+            Signature signature = Signature.getInstance(ServletConstants.SIGNATURE_ALGORITHM);
+            signature.initVerify(signingCertificate.getPublicKey());
+            signature.update(serializedRequestEnvelope);
+            if (!signature.verify(Base64.decodeBase64(baseEncoded64Signature
+                    .getBytes(ServletConstants.CHARACTER_ENCODING)))) {
+                throw new SecurityException(
+                        "Failed to verify the signature/certificate for the provided skill request");
+            }
+        } catch (GeneralSecurityException | IOException ex) {
+            throw new SecurityException(
+                    "Failed to verify the signature/certificate for the provided skill request",
+                    ex);
+        }
     }
 }</t>
   </si>
@@ -1145,100 +1556,6 @@
   </si>
   <si>
     <t>public class Foo {
-public void setIcon(Icon icon) {
-        Icon old = null;
-        if (iconInfo == CommandButtonIconInfo.BLANK_ICON_INFO) {
-            if (icon != null) {
-                // New IconInfo fires event
-                setIconInfo(new CommandButtonIconInfo(icon));
-            }
-        }
-        else {
-            old = iconInfo.getIcon();
-            this.iconInfo.setIcon(icon);
-        }
-        firePropertyChange(ICON_PROPERTY, old, icon);
-    }
-}</t>
-  </si>
-  <si>
-    <t>public class Foo {
-public static boolean setIcon(MarkerOptions markerOptions, IconRow icon, float density, IconCache iconCache) {
-        boolean iconSet = false;
-        if (icon != null) {
-            Bitmap iconImage = createIcon(icon, density, iconCache);
-            markerOptions.icon(BitmapDescriptorFactory
-                    .fromBitmap(iconImage));
-            iconSet = true;
-            double anchorU = icon.getAnchorUOrDefault();
-            double anchorV = icon.getAnchorVOrDefault();
-            markerOptions.anchor((float) anchorU, (float) anchorV);
-        }
-        return iconSet;
-    }
-}</t>
-  </si>
-  <si>
-    <t>public class Foo {
-public static Icon getStockIcon(String name) {
-    SoftReference&lt;Icon&gt; ref = iconcache.get(name);
-    if(ref != null) {
-      Icon icon = ref.get();
-      if(icon != null) {
-        return icon;
-      }
-    }
-    java.net.URL imgURL = StockIcon.class.getResource(name + ".png");
-    if(imgURL != null) {
-      Icon icon = new ImageIcon(imgURL);
-      iconcache.put(name, new SoftReference&lt;&gt;(icon));
-      return icon;
-    }
-    LoggingUtil.warning("Could not find stock icon: " + name);
-    return null;
-  }
-}</t>
-  </si>
-  <si>
-    <t>public class Foo {
-protected WebElement getSocialIcon(String social) {
-		logger.debug("getSocialIcon " + social);
-		By linkLocator = By.cssSelector("a." + social);
-		WebElement foundSocialIcon = null;
-		for (WebElement socialIcon : socialIcons) {
-			try {
-				socialIcon.findElement(linkLocator);
-				foundSocialIcon = socialIcon;
-			} catch(NoSuchElementException e) {
-				continue;
-			}
-		}
-		assertNotNull("social button for " + social + " not found.", foundSocialIcon);
-		return foundSocialIcon;
-	}
-}</t>
-  </si>
-  <si>
-    <t>public class Foo {
-public static ImageIcon getImageIcon(String fileName) {
-		if (fileName == null) {
-			return null;
-		}
-		if (CACHE.size() &gt; 150) {
-			CACHE.clear(); // pour éviter une fuite mémoire potentielle
-		}
-		ImageIcon imageIcon = CACHE.get(fileName);
-		if (imageIcon == null) {
-			final URL url = ImageIconCache.class.getResource(Parameters.getResourcePath(fileName));
-			imageIcon = new ImageIcon(url);
-			CACHE.put(fileName, imageIcon);
-		}
-		return imageIcon;
-	}
-}</t>
-  </si>
-  <si>
-    <t>public class Foo {
 public static ImageIcon getImageIcon(String fileName) {
   if (fileName == null) {
    return null;
@@ -1258,6 +1575,149 @@
   </si>
   <si>
     <t>public class Foo {
+public static Document getDocument(String xmlPath) {
+        try {
+            InputStream is = Thread.currentThread().getContextClassLoader().getResourceAsStream(xmlPath);
+            return new SAXReader().read(is);
+        } catch (Exception e) {
+            throw new XmlParseException("读取或解析xml文件失败，xmlPath是:" + xmlPath, e);
+        }
+    }
+}</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>public class Foo {
+public HashCalculationResult calculateSuperHash(File file) throws IOException {
+        // Ignore files smaller than 0.5kb
+        long fileSize = file.length();
+        if (fileSize &lt;= FILE_MIN_SIZE_THRESHOLD) {
+            logger.debug("Ignored file " + file.getName() + " (" + FileUtils.byteCountToDisplaySize(fileSize) + "): minimum file size is 512B");
+            return null;
+        }
+        if (fileSize &gt;= FILE_MAX_SIZE_THRESHOLD){
+            logger.debug("Ignore file {}, ({}): maximum file size is 2GB", file.getName(), FileUtils.byteCountToDisplaySize(fileSize));
+            return null;
+        }
+        HashCalculationResult result = null;
+        try {
+            result = calculateSuperHash(FileUtils.readFileToByteArray(file));
+        } catch (OutOfMemoryError e) {
+            logger.debug(MessageFormat.format("Failed calculating SHA-1 for file {0}: size too big {1}",
+                    file.getAbsolutePath(), FileUtils.byteCountToDisplaySize(fileSize)));
+        }
+        return result;
+    }
+}</t>
+  </si>
+  <si>
+    <t>public class Foo {
+public static String getAbsoluteUri(String relativeUri, String baseUri) {
+        if (isAbsoluteUri(relativeUri)) {
+            // URI is null or already absolute
+            return relativeUri;
+        }
+        try {
+            URL url = new URL(new URL(m_baseUrl, baseUri), relativeUri);
+            StringBuffer result = new StringBuffer(100);
+            result.append(url.getPath());
+            if (url.getQuery() != null) {
+                result.append('?');
+                result.append(url.getQuery());
+            }
+            if (url.getRef() != null) {
+                result.append('#');
+                result.append(url.getRef());
+            }
+            return result.toString();
+        } catch (MalformedURLException e) {
+            LOG.debug(e.getLocalizedMessage(), e);
+            return relativeUri;
+        }
+    }
+}</t>
+  </si>
+  <si>
+    <t>public class Foo {
+public static boolean checkUrl(CmsObject cms, String check) {
+        // first, create an URI from the string representation
+        URI uri = null;
+        try {
+            uri = new CmsUriSplitter(check, true).toURI();
+        } catch (URISyntaxException exc) {
+            return false;
+        }
+        try {
+            if (!uri.isAbsolute()) {
+                return cms.existsResource(cms.getRequestContext().removeSiteRoot(uri.getPath()));
+            } else {
+                URL url = uri.toURL();
+                if ("http".equals(url.getProtocol())) {
+                    // ensure that file is encoded properly
+                    HttpURLConnection httpcon = (HttpURLConnection)url.openConnection();
+                    int responseCode = httpcon.getResponseCode();
+                    // accepting all status codes 2xx success and 3xx - redirect
+                    return ((responseCode &gt;= 200) &amp;&amp; (responseCode &lt; 400));
+                } else {
+                    return true;
+                }
+            }
+        } catch (MalformedURLException mue) {
+            return false;
+        } catch (Exception ex) {
+            return false;
+        }
+    }
+}</t>
+  </si>
+  <si>
+    <t>public class Foo {
+HttpResponse post(URI uri, String json) {
+  HttpPost post = new HttpPost(uri);
+  setEntity(post, json);
+  return executeRequest(post);
+ }
+}</t>
+  </si>
+  <si>
+    <t>public class Foo {
+protected void addCookies(final HttpRequest httpRequest) {
+  // prepare all cookies
+  List&lt;Cookie&gt; cookiesList = new ArrayList&lt;&gt;();
+  if (!cookies.isEmpty()) {
+   for (Map.Entry&lt;String, Cookie&gt; cookieEntry : cookies) {
+    cookiesList.add(cookieEntry.getValue());
+   }
+   httpRequest.cookies(cookiesList.toArray(new Cookie[0]));
+  }
+ }
+}</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>public class Foo {
+@Override
+	public String encode(Image image) {
+		if (image == null) {
+			return null;
+		}
+		ByteArrayOutputStream byteArrayOutputStream = new ByteArrayOutputStream();
+		try {
+			ImageIO.write((BufferedImage) image, FORMAT, byteArrayOutputStream);
+			byte[] imageData = byteArrayOutputStream.toByteArray();
+			return Base64.encodeBase64String(imageData);
+		} catch (IOException e) {
+			throw new RuntimeException(e);
+		}
+	}
+}</t>
+  </si>
+  <si>
+    <t>public class Foo {
 public ImageIcon retrieveIcon(String location) throws IconProviderException
 	{
 		try
@@ -1273,71 +1733,20 @@
 }</t>
   </si>
   <si>
-    <t>public class Foo {
-HttpResponse post(URI uri, String json) {
-		HttpPost post = new HttpPost(uri);
-		setEntity(post, json);
-		return executeRequest(post);
-	}
-}</t>
-  </si>
-  <si>
-    <t>public class Foo {
-private &lt;T&gt; HttpUriRequest prepareRequest(URI uri, Map&lt;String, String&gt; headers, String jsonData) {
-        HttpUriRequest httpRequest;
-        if (jsonData != null) {
-            // POST data
-            HttpPost httpPost = new HttpPost(uri);
-            httpPost.setEntity(new StringEntity(jsonData, ContentType.APPLICATION_JSON));
-            httpRequest = httpPost;
+    <t>B7</t>
+  </si>
+  <si>
+    <t>public class Foo {
+public void checkForUpdate(UpdateCheckListener updateCheckListener) {
+        listeners.add(updateCheckListener);
+        if (scheduler != null) {
+            scheduler.schedule(new UpdateCheckTask(this, versionServiceUrl, productName), 0, SECONDS);
         } else {
-            // GET request
-            httpRequest = new HttpGet(uri);
-        }
-        httpRequest.addHeader(HttpHeaders.ACCEPT, "application/json");
-        headers.forEach(httpRequest::addHeader);
-        return httpRequest;
-    }
-}</t>
-  </si>
-  <si>
-    <t>public class Foo {
-public CloseableHttpResponse postJson(String url, String json, Map&lt;String, String&gt; reqHeaders) throws IOException {
-        CloseableHttpClient req = getClient();
-        CloseableHttpResponse resp = null;
-        HttpPost post = new HttpPost(url);
-        addHeaders(post, reqHeaders);
-        post.setHeader(json, url);
-        StringEntity input = new StringEntity(json, ContentType.APPLICATION_JSON);
-        post.setEntity(input);
-        resp = req.execute(post);
-        return resp;
-    }
-}</t>
-  </si>
-  <si>
-    <t>public class Foo {
-public String postRequest(final URL url, final String jsonBody) throws MovieDbException {
-        try {
-            HttpPost httpPost = new HttpPost(url.toURI());
-            httpPost.addHeader(HTTP.CONTENT_TYPE, APPLICATION_JSON);
-            httpPost.addHeader(HttpHeaders.ACCEPT, APPLICATION_JSON);
-            StringEntity params = new StringEntity(jsonBody, ContentType.APPLICATION_JSON);
-            httpPost.setEntity(params);
-            return validateResponse(DigestedResponseReader.postContent(httpClient, httpPost, CHARSET), url);
-        } catch (URISyntaxException | IOException ex) {
-            throw new MovieDbException(ApiExceptionType.CONNECTION_ERROR, null, url, ex);
-        }
-    }
-}</t>
-  </si>
-  <si>
-    <t>public class Foo {
-HttpResponse post(URI uri, String json) {
-  HttpPost post = new HttpPost(uri);
-  setEntity(post, json);
-  return executeRequest(post);
- }
+            // the scheduler won't be provided if the service isn't actually running,
+            // but management may still ask for a check on update
+            new UpdateCheckTask(this, versionServiceUrl, productName).run();
+        }
+    }
 }</t>
   </si>
   <si>
@@ -1366,463 +1775,380 @@
     }
 }</t>
   </si>
-  <si>
-    <t>public class Foo {
-public String getXPathBase() {
-        String xPathBase = "";
-        if (this.getElement() != null) {
-            String locator = getLocator();
-            if (!locator.startsWith("link=") &amp;&amp; !locator.startsWith("xpath=") &amp;&amp; !locator.startsWith("/")) {
-                if (locator.startsWith("id=") || locator.startsWith("name=")) {
-                    String tmp = locator.substring(locator.indexOf('=', 1) + 1);
-                    if (locator.startsWith("id=")) {
-                        xPathBase = "//table[@id='" + tmp + "']/tbody/";
-                    } else {
-                        xPathBase = "//*[@name='" + tmp + "']/tbody/";
-                    }
-                } else {
-                    xPathBase = "//*[@id='" + locator + "']/tbody/";
-                }
-            } else {
-                if (locator.startsWith("xpath=")) {
-                    locator = locator.substring(locator.indexOf('=', 1) + 1);
-                }
-                if (HtmlElementUtils.locateElements(locator + "/tbody").size() &gt; 0) {
-                    xPathBase = locator + "/tbody/";
-                } else {
-                    xPathBase = locator + "//";
-                }
-            }
-        } else {
-            throw new NoSuchElementException("Table" + this.getLocator() + " does not exist.");
-        }
-        return xPathBase;
-    }
-}</t>
-  </si>
-  <si>
-    <t>public class Foo {
-public static Xml readAllFromResource(String resourceName)  {
-        InputStream is = XmlReader.class.getResourceAsStream(resourceName);
-        XmlReader reader = new XmlReader(is);
-        Xml xml = reader.read("node()");
-        reader.close();
-        return xml;
-    }
-}</t>
-  </si>
-  <si>
-    <t>public class Foo {
-private Object readMetadataFromXML(InputSource source, Class target)
-            throws MalformedURLException, ParserConfigurationException, SAXException, IOException
-    {
-        // TODO: make this configurable
-        boolean validate = false;
-        // get a xml reader instance:
-        SAXParserFactory factory = SAXParserFactory.newInstance();
-        log.info("RepositoryPersistor using SAXParserFactory : " + factory.getClass().getName());
-        if (validate)
-        {
-            factory.setValidating(true);
-        }
-        SAXParser p = factory.newSAXParser();
-        XMLReader reader = p.getXMLReader();
-        if (validate)
-        {
-            reader.setErrorHandler(new OJBErrorHandler());
-        }
-        Object result;
-        if (DescriptorRepository.class.equals(target))
-        {
-            // create an empty repository:
-            DescriptorRepository repository = new DescriptorRepository();
-            // create handler for building the repository structure
-            ContentHandler handler = new RepositoryXmlHandler(repository);
-            // tell parser to use our handler:
-            reader.setContentHandler(handler);
-            reader.parse(source);
-            result = repository;
-        }
-        else if (ConnectionRepository.class.equals(target))
-        {
-            // create an empty repository:
-            ConnectionRepository repository = new ConnectionRepository();
-            // create handler for building the repository structure
-            ContentHandler handler = new ConnectionDescriptorXmlHandler(repository);
-            // tell parser to use our handler:
-            reader.setContentHandler(handler);
-            reader.parse(source);
-            //LoggerFactory.getBootLogger().info("loading XML took " + (stop - start) + " msecs");
-            result = repository;
-        }
-        else
-            throw new MetadataException("Could not build a repository instance for '" + target +
-                    "', using source " + source);
-        return result;
-    }
-}</t>
-  </si>
-  <si>
-    <t>public class Foo {
-private void adjustModuleConfig() {
-        Locale l = CmsLocaleManager.getLocale("en");
-        try {
-            CmsResource config = m_cms.readResource(m_config.getValue());
-            CmsFile configFile = m_cms.readFile(config);
-            CmsXmlContent xmlContent = CmsXmlContentFactory.unmarshal(m_cms, configFile);
-            int number = xmlContent.getIndexCount(XMLPath.CONFIG_RESOURCETYPE, l) + 1;
-            createParentXmlElements(
-                xmlContent,
-                XMLPath.CONFIG_RESOURCETYPE + XMLPath.num(number) + XMLPath.CONFIG_RESOURCETYPE_TYPENAME,
-                l);
-            I_CmsXmlContentValue v = xmlContent.getValue(
-                XMLPath.CONFIG_RESOURCETYPE + XMLPath.num(number) + XMLPath.CONFIG_RESOURCETYPE_TYPENAME,
-                l);
-            v.setStringValue(m_cms, m_typeShortName.getValue());
-            v = xmlContent.addValue(
-                m_cms,
-                XMLPath.CONFIG_RESOURCETYPE + XMLPath.num(number) + XMLPath.CONFIG_RESOURCETYPE_NAMEPATTERN,
-                l,
-                CmsXmlUtils.getXpathIndexInt(
-                    XMLPath.CONFIG_RESOURCETYPE + XMLPath.num(number) + XMLPath.CONFIG_RESOURCETYPE_NAMEPATTERN) - 1);
-            v.setStringValue(m_cms, getNamePattern());
-            configFile.setContents(xmlContent.marshal());
-            CmsLockUtil.ensureLock(m_cms, configFile);
-            m_cms.writeFile(configFile);
-            CmsLockUtil.tryUnlock(m_cms, configFile);
-        } catch (CmsException e) {
-            LOG.error("Can't read module config resource", e);
-        }
-    }
-}</t>
-  </si>
-  <si>
-    <t>public class Foo {
-public static Object executeXPath(Node document, String xpathExpression, Map&lt;String, String&gt; namespaceMapping, QName result)
-                throws XPathException, MarshallingException
-    {
-        NamespaceMapContext mapContext = new NamespaceMapContext(namespaceMapping);
-        try
-        {
-            XPathFactory xPathfactory = XPathFactory.newInstance();
-            XPath xpath = xPathfactory.newXPath();
-            xpath.setNamespaceContext(mapContext);
-            XPathExpression expr = xpath.compile(xpathExpression);
-            return executeXPath(document, expr, result);
-        }
-        catch (XPathExpressionException e)
-        {
-            throw new XPathException("Xpath(" + xpathExpression + ") cannot be compiled", e);
-        }
-        catch (Exception e)
-        {
-            throw new MarshallingException("Exception unmarshalling XML.", e);
-        }
-    }
-}</t>
-  </si>
-  <si>
-    <t>public class Foo {
-public XMLNode parseXML(String root) throws DocFileIOException, SimpleDocletException {
-        if (!xmlElementsMap.containsKey(root)) {
-            try {
-                currentRoot = root;
-                isParsing = false;
-                SAXParserFactory factory = SAXParserFactory.newInstance();
-                SAXParser saxParser = factory.newSAXParser();
-                InputStream in = configuration.getBuilderXML();
-                saxParser.parse(in, this);
-            } catch (IOException | ParserConfigurationException | SAXException e) {
-                String message = (configuration.builderXMLPath == null)
-                        ? configuration.getResources().getText("doclet.exception.read.resource",
-                                Configuration.DEFAULT_BUILDER_XML, e)
-                        : configuration.getResources().getText("doclet.exception.read.file",
-                                configuration.builderXMLPath, e);
-                throw new SimpleDocletException(message, e);
-            }
-        }
-        return xmlElementsMap.get(root);
-    }
-}</t>
-  </si>
-  <si>
-    <t>public class Foo {
-public static Document getDocument(String xmlPath) {
-        try {
-            InputStream is = Thread.currentThread().getContextClassLoader().getResourceAsStream(xmlPath);
-            return new SAXReader().read(is);
-        } catch (Exception e) {
-            throw new XmlParseException("读取或解析xml文件失败，xmlPath是:" + xmlPath, e);
-        }
-    }
-}</t>
-  </si>
-  <si>
-    <t>public class Foo {
-public static void addCookie(HttpServletRequest request, HttpServletResponse response, String name,
-      String value, String path, int age) {
-    LOG.debug("add cookie[name:{},value={},path={}]", new String[] { name, value, path });
-    Cookie cookie = null;
-    try {
-      cookie = new Cookie(name, URLEncoder.encode(value, "utf-8"));
-    } catch (UnsupportedEncodingException e) {
-      throw new RuntimeException(e);
-    }
-    cookie.setSecure(false);
-    cookie.setPath(path);
-    cookie.setMaxAge(age);
-    cookie.setHttpOnly(true);
-    response.addCookie(cookie);
-  }
-}</t>
-  </si>
-  <si>
-    <t>public class Foo {
-@Override
-    public Client cookie(Cookie cookie) {
-        possiblyAddHeader(HttpHeaders.COOKIE, cookie.toString());
-        return this;
-    }
-}</t>
-  </si>
-  <si>
-    <t>public class Foo {
-protected void addRequestCookies(final HttpServletRequest httpServletRequest, final Map&lt;String, List&lt;Object&gt;&gt; attributes) {
-        final Cookie[] cookies = httpServletRequest.getCookies();
-        if (cookies == null) {
-            return;
-        }
-        for (final Cookie cookie : cookies) {
-            final String cookieName = cookie.getName();
-            if (this.cookieAttributeMapping.containsKey(cookieName)) {
-                for (final String attributeName : this.cookieAttributeMapping.get(cookieName)) {
-                    attributes.put(attributeName, list(cookie.getValue()));
-                }
-            }
-        }
-    }
-}</t>
-  </si>
-  <si>
-    <t>public class Foo {
-public String encode(Cookie cookie) {
-    if (cookie == null) {
-      throw new NullPointerException("cookie");
-    }
-    final String name = cookie.name();
-    final String value = cookie.value() != null ? cookie.value() : "";
-    validateCookie(name, value);
-    StringBuilder buf = new StringBuilder();
-    if (cookie.wrap()) {
-      addQuoted(buf, name, value);
-    } else {
-      add(buf, name, value);
-    }
-    if (cookie.maxAge() != Integer.MIN_VALUE) {
-      add(buf, CookieHeaderNames.MAX_AGE, cookie.maxAge());
-      Date expires =
-          cookie.maxAge() &lt;= 0
-              ? new Date(0) // Set expires to the Unix epoch
-              : new Date(cookie.maxAge() * 1000L + System.currentTimeMillis());
-      add(buf, CookieHeaderNames.EXPIRES, HttpHeaderDateFormat.get().format(expires));
-    }
-    if (cookie.sameSite() != null) {
-      add(buf, CookieHeaderNames.SAMESITE, cookie.sameSite());
-    }
-    if (cookie.path() != null) {
-      add(buf, CookieHeaderNames.PATH, cookie.path());
-    }
-    if (cookie.domain() != null) {
-      add(buf, CookieHeaderNames.DOMAIN, cookie.domain());
-    }
-    if (cookie.isSecure()) {
-      add(buf, CookieHeaderNames.SECURE);
-    }
-    if (cookie.isHttpOnly()) {
-      add(buf, CookieHeaderNames.HTTPONLY);
-    }
-    return stripTrailingSeparator(buf);
-  }
-}</t>
-  </si>
-  <si>
-    <t>public class Foo {
-public static void storeSessionDataInCookie(String key, String value, ServletResponse response)
-	{
-		Cookie cookie = new Cookie(key, value);
-		cookie.setPath("/");
-		cookie.setMaxAge(-1);//expire when browser closes
-		((HttpServletResponse) response).addCookie(cookie);
-	}
-}</t>
-  </si>
-  <si>
-    <t>public class Foo {
-@Override
-    public void addCookie(Cookie cookie) {
-        super.addCookie(cookie);
-        if(this.cookies == null) {
-            this.cookies = new HashSet&lt;Cookie&gt;();
-        }
-        this.cookies.add(cookie);
-    }
-}</t>
-  </si>
-  <si>
-    <t>public class Foo {
-public static void addCookie(HttpServletRequest request, HttpServletResponse response, String name,
-      public class Foo {
-public static void addCookie(
-		HttpServletRequest request,
-		HttpServletResponse response,
-		String cookieName,
-		String value,
-		String comment,
-		int maxAge,
-		boolean secure,
-		boolean contextOnlyPath
-	) {
-		Cookie newCookie = new Cookie(cookieName, value);
-		if(comment!=null) newCookie.setComment(comment);
-		newCookie.setMaxAge(maxAge);
-		newCookie.setSecure(secure &amp;&amp; request.isSecure());
-		String path;
-		if(contextOnlyPath) {
-			path = request.getContextPath() + "/";
-			//if(path.length()==0) path = "/";
-		} else {
-			path = "/";
-		}
-		newCookie.setPath(path);
-		response.addCookie(newCookie);
-	}
-}</t>
-  </si>
-  <si>
-    <t>public class Foo {
-@Override
-    public void addCookie(Cookie cookie) {
-        if (cookie == null) {
-            throw new CmsIllegalArgumentException(Messages.get().container(Messages.ERR_ADD_COOKIE_0));
-        }
-        StringBuffer header = new StringBuffer(128);
-        // name and value
-        header.append(cookie.getName());
-        header.append('=');
-        header.append(cookie.getValue());
-        // add version 1 / RFC 2109 specific information
-        if (cookie.getVersion() == 1) {
-            header.append("; Version=1");
-            // comment
-            if (cookie.getComment() != null) {
-                header.append("; Comment=");
-                header.append(cookie.getComment());
-            }
-        }
-        // domain
-        if (cookie.getDomain() != null) {
-            header.append("; Domain=");
-            header.append(cookie.getDomain());
-        }
-        // max-age / expires
-        if (cookie.getMaxAge() &gt;= 0) {
-            if (cookie.getVersion() == 0) {
-                // old Netscape format
-                header.append("; Expires=");
-                long time;
-                if (cookie.getMaxAge() == 0) {
-                    time = 10000L;
-                } else {
-                    time = System.currentTimeMillis() + (cookie.getMaxAge() * 1000L);
-                }
-                header.append(CmsDateUtil.getOldCookieDate(time));
-            } else {
-                // new RFC 2109 format
-                header.append("; Max-Age=");
-                header.append(cookie.getMaxAge());
-            }
-        }
-        // path
-        if (cookie.getPath() != null) {
-            header.append("; Path=");
-            header.append(cookie.getPath());
-        }
-        // secure
-        if (cookie.getSecure()) {
-            header.append("; Secure");
-        }
-        addHeader("Set-Cookie", header.toString());
-    }
-}</t>
-  </si>
-  <si>
-    <t>public class Foo {
-protected void addCookies(final HttpRequest httpRequest) {
-  // prepare all cookies
-  List&lt;Cookie&gt; cookiesList = new ArrayList&lt;&gt;();
-  if (!cookies.isEmpty()) {
-   for (Map.Entry&lt;String, Cookie&gt; cookieEntry : cookies) {
-    cookiesList.add(cookieEntry.getValue());
-   }
-   httpRequest.cookies(cookiesList.toArray(new Cookie[0]));
-  }
- }
-}</t>
-  </si>
-  <si>
-    <t>Ranking</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Code</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time (s)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Correct</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1834,21 +2160,21 @@
       <left/>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1856,59 +2182,345 @@
       <left/>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="10" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1957,7 +2569,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1990,26 +2602,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2042,23 +2637,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2066,7 +2644,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -2087,9 +2665,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="16200000" scaled="true"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -2110,7 +2688,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="16200000" scaled="false"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -2180,7 +2758,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -2206,7 +2784,7 @@
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -2229,217 +2807,217 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AO16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG20" sqref="AG20"/>
+      <selection activeCell="AL1" sqref="AL1:AO1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
       <c r="E1" s="5"/>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
       <c r="I1" s="5"/>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
       <c r="M1" s="5"/>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
       <c r="Q1" s="5"/>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
       <c r="U1" s="5"/>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
       <c r="Y1" s="5"/>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
       <c r="AC1" s="5"/>
-      <c r="AD1" s="3" t="s">
+      <c r="AD1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="4"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
       <c r="AG1" s="5"/>
-      <c r="AH1" s="3" t="s">
+      <c r="AH1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AI1" s="4"/>
-      <c r="AJ1" s="4"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
       <c r="AK1" s="5"/>
-      <c r="AL1" s="3" t="s">
+      <c r="AL1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AM1" s="4"/>
-      <c r="AN1" s="4"/>
+      <c r="AM1" s="3"/>
+      <c r="AN1" s="3"/>
       <c r="AO1" s="5"/>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
+    <row r="2" spans="1:41">
+      <c r="A2" s="4"/>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="K2" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="L2" t="s">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M2" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="N2" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="O2" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="P2" t="s">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="Q2" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="R2" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="S2" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="T2" t="s">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="U2" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="V2" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="W2" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="X2" t="s">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="Y2" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="Z2" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="AA2" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="AB2" t="s">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="AC2" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="AD2" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="AE2" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="AF2" t="s">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="AG2" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="AH2" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="AI2" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="AJ2" t="s">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="AK2" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="AL2" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="AM2" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="AN2" t="s">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="AO2" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:41">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D3">
         <v>360</v>
@@ -2451,7 +3029,7 @@
         <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H3">
         <v>420</v>
@@ -2463,7 +3041,7 @@
         <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="L3">
         <v>150</v>
@@ -2475,7 +3053,7 @@
         <v>12</v>
       </c>
       <c r="O3" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="P3">
         <v>120</v>
@@ -2487,7 +3065,7 @@
         <v>95</v>
       </c>
       <c r="S3" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="T3">
         <v>700</v>
@@ -2523,7 +3101,7 @@
         <v>2</v>
       </c>
       <c r="AE3" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="AF3">
         <v>70</v>
@@ -2535,7 +3113,7 @@
         <v>8</v>
       </c>
       <c r="AI3" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="AJ3">
         <v>120</v>
@@ -2547,7 +3125,7 @@
         <v>15</v>
       </c>
       <c r="AM3" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="AN3">
         <v>200</v>
@@ -2556,15 +3134,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:41">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D4">
         <v>30</v>
@@ -2576,7 +3154,7 @@
         <v>150</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H4">
         <v>426</v>
@@ -2588,7 +3166,7 @@
         <v>2</v>
       </c>
       <c r="K4" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="L4">
         <v>77</v>
@@ -2600,7 +3178,7 @@
         <v>7</v>
       </c>
       <c r="O4" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="P4">
         <v>86</v>
@@ -2624,7 +3202,7 @@
         <v>19</v>
       </c>
       <c r="W4" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="X4">
         <v>66</v>
@@ -2636,7 +3214,7 @@
         <v>63</v>
       </c>
       <c r="AA4" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="AB4">
         <v>416</v>
@@ -2648,7 +3226,7 @@
         <v>2</v>
       </c>
       <c r="AE4" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="AF4">
         <v>27</v>
@@ -2672,7 +3250,7 @@
         <v>26</v>
       </c>
       <c r="AM4" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="AN4">
         <v>313</v>
@@ -2681,15 +3259,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:41">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D5">
         <v>120</v>
@@ -2701,7 +3279,7 @@
         <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H5">
         <v>240</v>
@@ -2713,7 +3291,7 @@
         <v>8</v>
       </c>
       <c r="K5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L5">
         <v>120</v>
@@ -2725,7 +3303,7 @@
         <v>7</v>
       </c>
       <c r="O5" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="P5">
         <v>180</v>
@@ -2737,7 +3315,7 @@
         <v>3</v>
       </c>
       <c r="S5" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="T5">
         <v>240</v>
@@ -2749,7 +3327,7 @@
         <v>19</v>
       </c>
       <c r="W5" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="X5">
         <v>300</v>
@@ -2773,7 +3351,7 @@
         <v>20</v>
       </c>
       <c r="AE5" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="AF5">
         <v>180</v>
@@ -2785,7 +3363,7 @@
         <v>15</v>
       </c>
       <c r="AI5" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="AJ5">
         <v>300</v>
@@ -2797,7 +3375,7 @@
         <v>86</v>
       </c>
       <c r="AM5" t="s">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="AN5">
         <v>600</v>
@@ -2806,15 +3384,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:41">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D6">
         <v>50</v>
@@ -2826,7 +3404,7 @@
         <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H6">
         <v>100</v>
@@ -2838,7 +3416,7 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L6">
         <v>5</v>
@@ -2850,7 +3428,7 @@
         <v>24</v>
       </c>
       <c r="O6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P6">
         <v>20</v>
@@ -2862,7 +3440,7 @@
         <v>2</v>
       </c>
       <c r="S6" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="T6">
         <v>150</v>
@@ -2874,7 +3452,7 @@
         <v>19</v>
       </c>
       <c r="W6" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="X6">
         <v>30</v>
@@ -2898,7 +3476,7 @@
         <v>3</v>
       </c>
       <c r="AE6" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="AF6">
         <v>15</v>
@@ -2910,7 +3488,7 @@
         <v>5</v>
       </c>
       <c r="AI6" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="AJ6">
         <v>60</v>
@@ -2922,7 +3500,7 @@
         <v>3</v>
       </c>
       <c r="AM6" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="AN6">
         <v>150</v>
@@ -2931,15 +3509,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:41">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D7">
         <v>198</v>
@@ -2951,7 +3529,7 @@
         <v>80</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="H7">
         <v>172</v>
@@ -2963,7 +3541,7 @@
         <v>7</v>
       </c>
       <c r="K7" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="L7">
         <v>164</v>
@@ -2975,7 +3553,7 @@
         <v>90</v>
       </c>
       <c r="O7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="P7">
         <v>327</v>
@@ -2987,7 +3565,7 @@
         <v>68</v>
       </c>
       <c r="S7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T7">
         <v>483</v>
@@ -2999,7 +3577,7 @@
         <v>2</v>
       </c>
       <c r="W7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="X7">
         <v>542</v>
@@ -3011,7 +3589,7 @@
         <v>22</v>
       </c>
       <c r="AA7" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="AB7">
         <v>237</v>
@@ -3023,7 +3601,7 @@
         <v>8</v>
       </c>
       <c r="AE7" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="AF7">
         <v>69</v>
@@ -3035,7 +3613,7 @@
         <v>181</v>
       </c>
       <c r="AI7" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="AJ7">
         <v>681</v>
@@ -3047,7 +3625,7 @@
         <v>48</v>
       </c>
       <c r="AM7" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="AN7">
         <v>73</v>
@@ -3056,15 +3634,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:41">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="D8">
         <v>120</v>
@@ -3076,7 +3654,7 @@
         <v>80</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="H8">
         <v>200</v>
@@ -3088,7 +3666,7 @@
         <v>2</v>
       </c>
       <c r="K8" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="L8">
         <v>30</v>
@@ -3100,7 +3678,7 @@
         <v>7</v>
       </c>
       <c r="O8" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="P8">
         <v>130</v>
@@ -3124,7 +3702,7 @@
         <v>19</v>
       </c>
       <c r="W8" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="X8">
         <v>80</v>
@@ -3148,7 +3726,7 @@
         <v>3</v>
       </c>
       <c r="AE8" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="AF8">
         <v>40</v>
@@ -3172,7 +3750,7 @@
         <v>1</v>
       </c>
       <c r="AM8" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="AN8">
         <v>10</v>
@@ -3181,15 +3759,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:41">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="B9">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="D9">
         <v>274</v>
@@ -3201,7 +3779,7 @@
         <v>4</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H9">
         <v>632</v>
@@ -3213,7 +3791,7 @@
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L9">
         <v>55</v>
@@ -3225,7 +3803,7 @@
         <v>7</v>
       </c>
       <c r="O9" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="P9">
         <v>105</v>
@@ -3261,7 +3839,7 @@
         <v>60</v>
       </c>
       <c r="AA9" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AB9">
         <v>532</v>
@@ -3273,7 +3851,7 @@
         <v>8</v>
       </c>
       <c r="AE9" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="AF9">
         <v>61</v>
@@ -3285,7 +3863,7 @@
         <v>18</v>
       </c>
       <c r="AI9" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="AJ9">
         <v>73</v>
@@ -3297,7 +3875,7 @@
         <v>15</v>
       </c>
       <c r="AM9" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="AN9">
         <v>332</v>
@@ -3306,15 +3884,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:41">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D10">
         <v>70</v>
@@ -3326,7 +3904,7 @@
         <v>5</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H10">
         <v>567</v>
@@ -3338,7 +3916,7 @@
         <v>2</v>
       </c>
       <c r="K10" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="L10">
         <v>129</v>
@@ -3350,7 +3928,7 @@
         <v>12</v>
       </c>
       <c r="O10" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="P10">
         <v>78</v>
@@ -3362,7 +3940,7 @@
         <v>30</v>
       </c>
       <c r="S10" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="T10">
         <v>928</v>
@@ -3374,7 +3952,7 @@
         <v>55</v>
       </c>
       <c r="W10" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="X10">
         <v>211</v>
@@ -3386,7 +3964,7 @@
         <v>186</v>
       </c>
       <c r="AA10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AB10">
         <v>210</v>
@@ -3398,7 +3976,7 @@
         <v>2</v>
       </c>
       <c r="AE10" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="AF10">
         <v>21</v>
@@ -3410,7 +3988,7 @@
         <v>18</v>
       </c>
       <c r="AI10" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="AJ10">
         <v>89</v>
@@ -3422,7 +4000,7 @@
         <v>57</v>
       </c>
       <c r="AM10" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="AN10">
         <v>34</v>
@@ -3431,15 +4009,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:41">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="B11">
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D11">
         <v>252</v>
@@ -3451,7 +4029,7 @@
         <v>5</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H11">
         <v>348</v>
@@ -3463,7 +4041,7 @@
         <v>2</v>
       </c>
       <c r="K11" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="L11">
         <v>106</v>
@@ -3475,7 +4053,7 @@
         <v>4</v>
       </c>
       <c r="O11" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="P11">
         <v>78</v>
@@ -3499,7 +4077,7 @@
         <v>8</v>
       </c>
       <c r="W11" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="X11">
         <v>198</v>
@@ -3511,7 +4089,7 @@
         <v>60</v>
       </c>
       <c r="AA11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AB11">
         <v>389</v>
@@ -3535,7 +4113,7 @@
         <v>197</v>
       </c>
       <c r="AI11" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="AJ11">
         <v>211</v>
@@ -3547,7 +4125,7 @@
         <v>47</v>
       </c>
       <c r="AM11" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AN11">
         <v>58</v>
@@ -3556,15 +4134,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:41">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="B12">
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D12">
         <v>60</v>
@@ -3576,7 +4154,7 @@
         <v>2</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="H12">
         <v>110</v>
@@ -3588,7 +4166,7 @@
         <v>2</v>
       </c>
       <c r="K12" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="L12">
         <v>60</v>
@@ -3600,7 +4178,7 @@
         <v>4</v>
       </c>
       <c r="O12" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="P12">
         <v>40</v>
@@ -3612,7 +4190,7 @@
         <v>47</v>
       </c>
       <c r="S12" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="T12">
         <v>800</v>
@@ -3624,7 +4202,7 @@
         <v>128</v>
       </c>
       <c r="W12" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="X12">
         <v>300</v>
@@ -3636,7 +4214,7 @@
         <v>105</v>
       </c>
       <c r="AA12" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="AB12">
         <v>600</v>
@@ -3648,7 +4226,7 @@
         <v>3</v>
       </c>
       <c r="AE12" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="AF12">
         <v>50</v>
@@ -3660,7 +4238,7 @@
         <v>8</v>
       </c>
       <c r="AI12" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="AJ12">
         <v>50</v>
@@ -3672,7 +4250,7 @@
         <v>15</v>
       </c>
       <c r="AM12" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="AN12">
         <v>120</v>
@@ -3681,15 +4259,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:41">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D13">
         <v>20</v>
@@ -3701,7 +4279,7 @@
         <v>32</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="H13">
         <v>60</v>
@@ -3713,7 +4291,7 @@
         <v>12</v>
       </c>
       <c r="K13" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="L13">
         <v>50</v>
@@ -3725,7 +4303,7 @@
         <v>15</v>
       </c>
       <c r="O13" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="P13">
         <v>60</v>
@@ -3737,7 +4315,7 @@
         <v>177</v>
       </c>
       <c r="S13" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="T13">
         <v>300</v>
@@ -3749,7 +4327,7 @@
         <v>9</v>
       </c>
       <c r="W13" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="X13">
         <v>300</v>
@@ -3761,7 +4339,7 @@
         <v>105</v>
       </c>
       <c r="AA13" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="AB13">
         <v>300</v>
@@ -3773,7 +4351,7 @@
         <v>3</v>
       </c>
       <c r="AE13" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="AF13">
         <v>60</v>
@@ -3785,7 +4363,7 @@
         <v>154</v>
       </c>
       <c r="AI13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AJ13">
         <v>60</v>
@@ -3797,7 +4375,7 @@
         <v>15</v>
       </c>
       <c r="AM13" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="AN13">
         <v>30</v>
@@ -3806,15 +4384,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:41">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D14">
         <v>260</v>
@@ -3826,7 +4404,7 @@
         <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="H14">
         <v>358</v>
@@ -3838,7 +4416,7 @@
         <v>22</v>
       </c>
       <c r="K14" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="L14">
         <v>167</v>
@@ -3850,7 +4428,7 @@
         <v>7</v>
       </c>
       <c r="O14" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="P14">
         <v>255</v>
@@ -3862,7 +4440,7 @@
         <v>79</v>
       </c>
       <c r="S14" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="T14">
         <v>270</v>
@@ -3874,7 +4452,7 @@
         <v>55</v>
       </c>
       <c r="W14" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="X14">
         <v>728</v>
@@ -3886,7 +4464,7 @@
         <v>105</v>
       </c>
       <c r="AA14" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="AB14">
         <v>492</v>
@@ -3898,7 +4476,7 @@
         <v>2</v>
       </c>
       <c r="AE14" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="AF14">
         <v>64</v>
@@ -3910,7 +4488,7 @@
         <v>18</v>
       </c>
       <c r="AI14" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="AJ14">
         <v>124</v>
@@ -3922,7 +4500,7 @@
         <v>65</v>
       </c>
       <c r="AM14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AN14">
         <v>247</v>
@@ -3931,15 +4509,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:41">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D15">
         <v>101</v>
@@ -3951,7 +4529,7 @@
         <v>27</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H15">
         <v>366</v>
@@ -3963,7 +4541,7 @@
         <v>2</v>
       </c>
       <c r="K15" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="L15">
         <v>71</v>
@@ -3975,7 +4553,7 @@
         <v>26</v>
       </c>
       <c r="O15" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="P15">
         <v>357</v>
@@ -3987,7 +4565,7 @@
         <v>73</v>
       </c>
       <c r="S15" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="T15">
         <v>169</v>
@@ -3999,7 +4577,7 @@
         <v>8</v>
       </c>
       <c r="W15" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="X15">
         <v>309</v>
@@ -4011,7 +4589,7 @@
         <v>142</v>
       </c>
       <c r="AA15" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="AB15">
         <v>306</v>
@@ -4023,7 +4601,7 @@
         <v>2</v>
       </c>
       <c r="AE15" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="AF15">
         <v>107</v>
@@ -4035,7 +4613,7 @@
         <v>197</v>
       </c>
       <c r="AI15" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="AJ15">
         <v>234</v>
@@ -4047,7 +4625,7 @@
         <v>15</v>
       </c>
       <c r="AM15" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="AN15">
         <v>67</v>
@@ -4056,15 +4634,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:41">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D16">
         <v>72</v>
@@ -4076,7 +4654,7 @@
         <v>12</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="H16">
         <v>576</v>
@@ -4088,7 +4666,7 @@
         <v>2</v>
       </c>
       <c r="K16" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="L16">
         <v>40</v>
@@ -4100,7 +4678,7 @@
         <v>7</v>
       </c>
       <c r="O16" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="P16">
         <v>72</v>
@@ -4112,7 +4690,7 @@
         <v>15</v>
       </c>
       <c r="S16" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="T16">
         <v>293</v>
@@ -4124,7 +4702,7 @@
         <v>55</v>
       </c>
       <c r="W16" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="X16">
         <v>343</v>
@@ -4136,7 +4714,7 @@
         <v>142</v>
       </c>
       <c r="AA16" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="AB16">
         <v>112</v>
@@ -4148,7 +4726,7 @@
         <v>1</v>
       </c>
       <c r="AE16" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AF16">
         <v>17</v>
@@ -4160,7 +4738,7 @@
         <v>197</v>
       </c>
       <c r="AI16" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="AJ16">
         <v>105</v>
@@ -4172,7 +4750,7 @@
         <v>1</v>
       </c>
       <c r="AM16" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="AN16">
         <v>35</v>
@@ -4183,19 +4761,19 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:U1"/>
     <mergeCell ref="V1:Y1"/>
     <mergeCell ref="Z1:AC1"/>
     <mergeCell ref="AD1:AG1"/>
     <mergeCell ref="AH1:AK1"/>
     <mergeCell ref="AL1:AO1"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:U1"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>